--- a/Midterm-exam/evidence/spreadsheets/per_site/www.baerum.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.baerum.kommune.no.xlsx
@@ -445,34 +445,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10480.21534</v>
+        <v>10551.65888</v>
       </c>
       <c r="C2">
-        <v>2533.81</v>
+        <v>2546.7829999999994</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="E2">
-        <v>10529.32144</v>
+        <v>10592.35713</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4978.155410242869</v>
+        <v>5022.827624124038</v>
       </c>
       <c r="I2">
         <v>67</v>
       </c>
       <c r="J2">
-        <v>1178608</v>
+        <v>1179001</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10569.686759999997</v>
+        <v>10266.412999999997</v>
       </c>
       <c r="C3">
-        <v>2532.0095</v>
+        <v>2525.4310000000005</v>
       </c>
       <c r="D3">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="E3">
-        <v>10619.086259999996</v>
+        <v>10318.912999999999</v>
       </c>
       <c r="F3">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5065.355808083306</v>
+        <v>4998.425864178345</v>
       </c>
       <c r="I3">
         <v>68</v>
       </c>
       <c r="J3">
-        <v>1178205</v>
+        <v>1180729</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -515,34 +515,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10568.603479999998</v>
+        <v>10332.293000000003</v>
       </c>
       <c r="C4">
-        <v>2527.197</v>
+        <v>2530.317</v>
       </c>
       <c r="D4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4">
-        <v>10618.041079999999</v>
+        <v>10374.188000000004</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4970.925198788969</v>
+        <v>5041.543242615004</v>
       </c>
       <c r="I4">
         <v>68</v>
       </c>
       <c r="J4">
-        <v>1177651</v>
+        <v>1179055</v>
       </c>
       <c r="K4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -550,34 +550,34 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10568.603479999998</v>
+        <v>10332.293000000003</v>
       </c>
       <c r="C5">
-        <v>2532.0095</v>
+        <v>2530.317</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E5">
-        <v>10618.041079999999</v>
+        <v>10374.188000000004</v>
       </c>
       <c r="F5">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4978.155410242869</v>
+        <v>5022.827624124038</v>
       </c>
       <c r="I5">
         <v>68</v>
       </c>
       <c r="J5">
-        <v>1178205</v>
+        <v>1179055</v>
       </c>
       <c r="K5">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>11258</v>
+        <v>11396</v>
       </c>
       <c r="F2">
-        <v>49311</v>
+        <v>49489</v>
       </c>
       <c r="G2">
-        <v>0.0032739727539999996</v>
+        <v>0.0033141049479999997</v>
       </c>
       <c r="H2">
-        <v>0.0043127304012</v>
+        <v>0.0043655956344</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/css</v>
       </c>
       <c r="E3">
-        <v>38586</v>
+        <v>38587</v>
       </c>
       <c r="F3">
         <v>157279</v>
       </c>
       <c r="G3">
-        <v>0.011221310418</v>
+        <v>0.011221601230999998</v>
       </c>
       <c r="H3">
-        <v>0.0147815789004</v>
+        <v>0.0147819619818</v>
       </c>
     </row>
     <row r="4">
@@ -712,16 +712,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E5">
-        <v>6942</v>
+        <v>6933</v>
       </c>
       <c r="F5">
         <v>16816</v>
       </c>
       <c r="G5">
-        <v>0.0020188238459999995</v>
+        <v>0.0020162065289999996</v>
       </c>
       <c r="H5">
-        <v>0.0026593510788</v>
+        <v>0.0026559033462000003</v>
       </c>
     </row>
     <row r="6">
@@ -738,16 +738,16 @@
         <v>image/webp</v>
       </c>
       <c r="E6">
-        <v>5037</v>
+        <v>5034</v>
       </c>
       <c r="F6">
         <v>4484</v>
       </c>
       <c r="G6">
-        <v>0.0014648250809999998</v>
+        <v>0.0014639526419999997</v>
       </c>
       <c r="H6">
-        <v>0.0019295810118000003</v>
+        <v>0.0019284317676000003</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E7">
-        <v>112810</v>
+        <v>112823</v>
       </c>
       <c r="F7">
         <v>112238</v>
       </c>
       <c r="G7">
-        <v>0.03280661453</v>
+        <v>0.032810395098999995</v>
       </c>
       <c r="H7">
-        <v>0.04321541273400001</v>
+        <v>0.0432203927922</v>
       </c>
     </row>
     <row r="8">
@@ -816,16 +816,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E9">
-        <v>66880</v>
+        <v>66877</v>
       </c>
       <c r="F9">
         <v>66344</v>
       </c>
       <c r="G9">
-        <v>0.019449573439999996</v>
+        <v>0.019448701000999997</v>
       </c>
       <c r="H9">
-        <v>0.025620484032000002</v>
+        <v>0.0256193347878</v>
       </c>
     </row>
     <row r="10">
@@ -842,16 +842,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E10">
-        <v>77917</v>
+        <v>77913</v>
       </c>
       <c r="F10">
         <v>77372</v>
       </c>
       <c r="G10">
-        <v>0.022659276520999996</v>
+        <v>0.022658113268999996</v>
       </c>
       <c r="H10">
-        <v>0.029848553443800007</v>
+        <v>0.0298470211182</v>
       </c>
     </row>
     <row r="11">
@@ -868,16 +868,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E11">
-        <v>72518</v>
+        <v>72516</v>
       </c>
       <c r="F11">
         <v>71982</v>
       </c>
       <c r="G11">
-        <v>0.021089177133999996</v>
+        <v>0.021088595507999998</v>
       </c>
       <c r="H11">
-        <v>0.027780296965200003</v>
+        <v>0.0277795308024</v>
       </c>
     </row>
     <row r="12">
@@ -894,16 +894,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E12">
-        <v>24285</v>
+        <v>24283</v>
       </c>
       <c r="F12">
         <v>23748</v>
       </c>
       <c r="G12">
-        <v>0.007062393704999999</v>
+        <v>0.007061812078999999</v>
       </c>
       <c r="H12">
-        <v>0.009303131799</v>
+        <v>0.009302365636200002</v>
       </c>
     </row>
     <row r="13">
@@ -920,16 +920,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E13">
-        <v>29649</v>
+        <v>29648</v>
       </c>
       <c r="F13">
         <v>83615</v>
       </c>
       <c r="G13">
-        <v>0.008622314636999999</v>
+        <v>0.008622023823999998</v>
       </c>
       <c r="H13">
-        <v>0.011357980428600001</v>
+        <v>0.011357597347200002</v>
       </c>
     </row>
     <row r="14">
@@ -946,16 +946,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E14">
-        <v>14005</v>
+        <v>14009</v>
       </c>
       <c r="F14">
         <v>33942</v>
       </c>
       <c r="G14">
-        <v>0.004072836065</v>
+        <v>0.004073999317</v>
       </c>
       <c r="H14">
-        <v>0.005365055007000001</v>
+        <v>0.0053665873326</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E15">
-        <v>105976</v>
+        <v>105960</v>
       </c>
       <c r="F15">
         <v>243322</v>
       </c>
       <c r="G15">
-        <v>0.030819198487999994</v>
+        <v>0.030814545479999993</v>
       </c>
       <c r="H15">
-        <v>0.04059743444640001</v>
+        <v>0.040591305144</v>
       </c>
     </row>
     <row r="16">
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>3578</v>
+        <v>3196</v>
       </c>
       <c r="F17">
         <v>993</v>
       </c>
       <c r="G17">
-        <v>0.0010405289139999998</v>
+        <v>0.0009294383479999999</v>
       </c>
       <c r="H17">
-        <v>0.0013706652492000001</v>
+        <v>0.0012243281544000002</v>
       </c>
     </row>
     <row r="18">
@@ -1076,16 +1076,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E19">
-        <v>46828</v>
+        <v>46829</v>
       </c>
       <c r="F19">
         <v>123063</v>
       </c>
       <c r="G19">
-        <v>0.013618191164</v>
+        <v>0.013618481976999998</v>
       </c>
       <c r="H19">
-        <v>0.017938935799200004</v>
+        <v>0.017939318880600005</v>
       </c>
     </row>
     <row r="20">
@@ -1102,16 +1102,16 @@
         <v>text/css</v>
       </c>
       <c r="E20">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F20">
         <v>1115</v>
       </c>
       <c r="G20">
-        <v>0.00033937877099999994</v>
+        <v>0.00033966958399999996</v>
       </c>
       <c r="H20">
-        <v>0.00044705599380000005</v>
+        <v>0.0004474390752000001</v>
       </c>
     </row>
     <row r="21">
@@ -1128,16 +1128,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E21">
-        <v>111956</v>
+        <v>112095</v>
       </c>
       <c r="F21">
-        <v>319133</v>
+        <v>319854</v>
       </c>
       <c r="G21">
-        <v>0.03255826022799999</v>
+        <v>0.032598683234999995</v>
       </c>
       <c r="H21">
-        <v>0.0428882612184</v>
+        <v>0.04294150953300001</v>
       </c>
     </row>
     <row r="22">
@@ -1232,16 +1232,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E25">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F25">
         <v>581</v>
       </c>
       <c r="G25">
-        <v>0.00023846665999999997</v>
+        <v>0.00023875747299999996</v>
       </c>
       <c r="H25">
-        <v>0.000314126748</v>
+        <v>0.00031450982940000005</v>
       </c>
     </row>
     <row r="26">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-petrolium-dark.svg</v>
       </c>
       <c r="C26" t="str">
         <v>Image</v>
@@ -1258,16 +1258,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E26">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="F26">
-        <v>581</v>
+        <v>330</v>
       </c>
       <c r="G26">
-        <v>0.00023788503399999996</v>
+        <v>0.00020996698599999995</v>
       </c>
       <c r="H26">
-        <v>0.00031336058520000005</v>
+        <v>0.00027658477079999997</v>
       </c>
     </row>
     <row r="27">
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
       </c>
       <c r="C27" t="str">
         <v>Image</v>
@@ -1284,16 +1284,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E27">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="F27">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="G27">
-        <v>0.00022799739199999997</v>
+        <v>0.00023788503399999996</v>
       </c>
       <c r="H27">
-        <v>0.00030033581760000006</v>
+        <v>0.00031336058520000005</v>
       </c>
     </row>
     <row r="28">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1310,16 +1310,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E28">
-        <v>845</v>
+        <v>785</v>
       </c>
       <c r="F28">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="G28">
-        <v>0.00024573698499999995</v>
+        <v>0.000228288205</v>
       </c>
       <c r="H28">
-        <v>0.000323703783</v>
+        <v>0.00030071889900000004</v>
       </c>
     </row>
     <row r="29">
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
       </c>
       <c r="C29" t="str">
         <v>Image</v>
@@ -1336,16 +1336,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E29">
-        <v>1506</v>
+        <v>846</v>
       </c>
       <c r="F29">
-        <v>2610</v>
+        <v>574</v>
       </c>
       <c r="G29">
-        <v>0.00043796437799999995</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H29">
-        <v>0.0005769205884000001</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="30">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
       </c>
       <c r="C30" t="str">
         <v>Image</v>
@@ -1362,16 +1362,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E30">
-        <v>1309</v>
+        <v>1507</v>
       </c>
       <c r="F30">
-        <v>1646</v>
+        <v>2610</v>
       </c>
       <c r="G30">
-        <v>0.00038067421699999995</v>
+        <v>0.00043825519099999997</v>
       </c>
       <c r="H30">
-        <v>0.0005014535526000001</v>
+        <v>0.0005773036698000001</v>
       </c>
     </row>
     <row r="31">
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
       </c>
       <c r="C31" t="str">
         <v>Image</v>
@@ -1388,16 +1388,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E31">
-        <v>822</v>
+        <v>1310</v>
       </c>
       <c r="F31">
-        <v>589</v>
+        <v>1646</v>
       </c>
       <c r="G31">
-        <v>0.00023904828599999995</v>
+        <v>0.00038096502999999997</v>
       </c>
       <c r="H31">
-        <v>0.0003148929108000001</v>
+        <v>0.000501836634</v>
       </c>
     </row>
     <row r="32">
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
       </c>
       <c r="C32" t="str">
         <v>Image</v>
@@ -1414,16 +1414,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E32">
-        <v>972</v>
+        <v>822</v>
       </c>
       <c r="F32">
-        <v>884</v>
+        <v>589</v>
       </c>
       <c r="G32">
-        <v>0.0002826702359999999</v>
+        <v>0.00023904828599999995</v>
       </c>
       <c r="H32">
-        <v>0.0003723551208</v>
+        <v>0.0003148929108000001</v>
       </c>
     </row>
     <row r="33">
@@ -1431,25 +1431,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
+        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
       </c>
       <c r="C33" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D33" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E33">
-        <v>33639</v>
+        <v>972</v>
       </c>
       <c r="F33">
-        <v>33400</v>
+        <v>884</v>
       </c>
       <c r="G33">
-        <v>0.009782658506999999</v>
+        <v>0.0002826702359999999</v>
       </c>
       <c r="H33">
-        <v>0.012886475214600002</v>
+        <v>0.0003723551208</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
+        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
       </c>
       <c r="C34" t="str">
         <v>Font</v>
@@ -1466,16 +1466,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E34">
-        <v>28227</v>
+        <v>33638</v>
       </c>
       <c r="F34">
-        <v>27996</v>
+        <v>33400</v>
       </c>
       <c r="G34">
-        <v>0.008208778550999999</v>
+        <v>0.009782367694</v>
       </c>
       <c r="H34">
-        <v>0.010813238677800001</v>
+        <v>0.012886092133200001</v>
       </c>
     </row>
     <row r="35">
@@ -1483,25 +1483,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
       </c>
       <c r="C35" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D35" t="str">
-        <v>text/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E35">
-        <v>10434</v>
+        <v>28226</v>
       </c>
       <c r="F35">
-        <v>30432</v>
+        <v>27996</v>
       </c>
       <c r="G35">
-        <v>0.0030343428419999994</v>
+        <v>0.008208487737999998</v>
       </c>
       <c r="H35">
-        <v>0.0039970713276000006</v>
+        <v>0.0108128555964</v>
       </c>
     </row>
     <row r="36">
@@ -1509,25 +1509,25 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C36" t="str">
         <v>Script</v>
       </c>
       <c r="D36" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E36">
-        <v>30656</v>
+        <v>10432</v>
       </c>
       <c r="F36">
-        <v>195553</v>
+        <v>30432</v>
       </c>
       <c r="G36">
-        <v>0.008915163327999999</v>
+        <v>0.0030337612159999994</v>
       </c>
       <c r="H36">
-        <v>0.011743743398400001</v>
+        <v>0.0039963051648</v>
       </c>
     </row>
     <row r="37">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5b71h2</v>
+        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
       </c>
       <c r="C37" t="str">
         <v>Script</v>
@@ -1544,16 +1544,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E37">
-        <v>163431</v>
+        <v>30656</v>
       </c>
       <c r="F37">
-        <v>497234</v>
+        <v>195553</v>
       </c>
       <c r="G37">
-        <v>0.04752785940299999</v>
+        <v>0.008915163327999999</v>
       </c>
       <c r="H37">
-        <v>0.0626073762834</v>
+        <v>0.011743743398400001</v>
       </c>
     </row>
     <row r="38">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1h1</v>
       </c>
       <c r="C38" t="str">
         <v>Script</v>
@@ -1570,16 +1570,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E38">
-        <v>88527</v>
+        <v>163237</v>
       </c>
       <c r="F38">
-        <v>333797</v>
+        <v>496793</v>
       </c>
       <c r="G38">
-        <v>0.025744802451</v>
+        <v>0.047471441680999996</v>
       </c>
       <c r="H38">
-        <v>0.033913047097800006</v>
+        <v>0.06253305849179999</v>
       </c>
     </row>
     <row r="39">
@@ -1587,25 +1587,25 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1762813711606</v>
+        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
       </c>
       <c r="C39" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D39" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E39">
-        <v>205</v>
+        <v>88517</v>
       </c>
       <c r="F39">
-        <v>35</v>
+        <v>333797</v>
       </c>
       <c r="G39">
-        <v>0.00005961666499999999</v>
+        <v>0.025741894320999995</v>
       </c>
       <c r="H39">
-        <v>0.000078531687</v>
+        <v>0.0339092162838</v>
       </c>
     </row>
     <row r="40">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=534&amp;prev=b72b330e-c288-065a-f496-28a813e89764&amp;luid=37a2e64b-6592-8127-2bf1-161a8520ce24&amp;rnd=6006</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140392999</v>
       </c>
       <c r="C40" t="str">
         <v>Image</v>
@@ -1622,16 +1622,16 @@
         <v>image/gif</v>
       </c>
       <c r="E40">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40">
-        <v>0.00006107072999999999</v>
+        <v>0.00005961666499999999</v>
       </c>
       <c r="H40">
-        <v>0.00008044709400000001</v>
+        <v>0.000078531687</v>
       </c>
     </row>
     <row r="41">
@@ -1639,25 +1639,25 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.baerum.kommune.no/favicon.ico</v>
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=552&amp;prev=60c2a352-60cd-b81f-5847-71487aaab9c0&amp;luid=2407300a-ccc2-b753-993b-1568ad7a880c&amp;rnd=60551</v>
       </c>
       <c r="C41" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D41" t="str">
-        <v>image/x-icon</v>
+        <v>image/gif</v>
       </c>
       <c r="E41">
-        <v>2068</v>
+        <v>210</v>
       </c>
       <c r="F41">
-        <v>15086</v>
+        <v>34</v>
       </c>
       <c r="G41">
-        <v>0.000601401284</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H41">
-        <v>0.0007922123352000001</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="42">
@@ -1665,25 +1665,25 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.baerum.kommune.no/favicon.ico</v>
       </c>
       <c r="C42" t="str">
-        <v>XHR</v>
+        <v>Other</v>
       </c>
       <c r="D42" t="str">
-        <v>application/json</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E42">
-        <v>200</v>
+        <v>2068</v>
       </c>
       <c r="F42">
-        <v>96</v>
+        <v>15086</v>
       </c>
       <c r="G42">
-        <v>0.00005816259999999999</v>
+        <v>0.000601401284</v>
       </c>
       <c r="H42">
-        <v>0.00007661628</v>
+        <v>0.0007922123352000001</v>
       </c>
     </row>
     <row r="43">
@@ -1694,19 +1694,22 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C43" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D43" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F43">
+        <v>96</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="44">
@@ -1714,22 +1717,22 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5b71h2v9118274999z871800422za200zb71800422zd71800422&amp;_p=1762813711449&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=153839754.1762813712&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~115583767~115938465~115938469~116217636~116217638&amp;sid=1762813711&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1040</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C44" t="str">
-        <v>Fetch</v>
+        <v>Preflight</v>
       </c>
       <c r="D44" t="str">
-        <v>text/plain</v>
+        <v/>
       </c>
       <c r="E44">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.00016081958899999998</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.00021184401420000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1737,51 +1740,48 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1762813712800&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1h1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140392837&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=550637155.1763140394&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1763140393&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1055</v>
       </c>
       <c r="C45" t="str">
-        <v>XHR</v>
+        <v>Fetch</v>
       </c>
       <c r="D45" t="str">
-        <v>application/json</v>
+        <v>text/plain</v>
       </c>
       <c r="E45">
-        <v>293</v>
-      </c>
-      <c r="F45">
-        <v>47</v>
+        <v>553</v>
       </c>
       <c r="G45">
-        <v>0.00008520820899999998</v>
+        <v>0.00016081958899999998</v>
       </c>
       <c r="H45">
-        <v>0.0001122428502</v>
+        <v>0.00021184401420000005</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.baerum.kommune.no/</v>
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140394191&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
       </c>
       <c r="C46" t="str">
-        <v>Document</v>
+        <v>XHR</v>
       </c>
       <c r="D46" t="str">
-        <v>text/html</v>
+        <v>application/json</v>
       </c>
       <c r="E46">
-        <v>11217</v>
+        <v>292</v>
       </c>
       <c r="F46">
-        <v>49311</v>
+        <v>47</v>
       </c>
       <c r="G46">
-        <v>0.0032620494209999996</v>
+        <v>0.00008491739599999999</v>
       </c>
       <c r="H46">
-        <v>0.0042970240638</v>
+        <v>0.00011185976880000002</v>
       </c>
     </row>
     <row r="47">
@@ -1789,25 +1789,25 @@
         <v>2</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
+        <v>https://www.baerum.kommune.no/</v>
       </c>
       <c r="C47" t="str">
-        <v>Stylesheet</v>
+        <v>Document</v>
       </c>
       <c r="D47" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E47">
-        <v>38589</v>
+        <v>11397</v>
       </c>
       <c r="F47">
-        <v>157279</v>
+        <v>49489</v>
       </c>
       <c r="G47">
-        <v>0.011222182856999998</v>
+        <v>0.0033143957609999995</v>
       </c>
       <c r="H47">
-        <v>0.014782728144600002</v>
+        <v>0.0043659787158</v>
       </c>
     </row>
     <row r="48">
@@ -1815,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="str">
-        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
+        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
       </c>
       <c r="C48" t="str">
         <v>Stylesheet</v>
@@ -1824,16 +1824,16 @@
         <v>text/css</v>
       </c>
       <c r="E48">
-        <v>1086</v>
+        <v>38592</v>
       </c>
       <c r="F48">
-        <v>5418</v>
+        <v>157279</v>
       </c>
       <c r="G48">
-        <v>0.00031582291799999996</v>
+        <v>0.011223055296</v>
       </c>
       <c r="H48">
-        <v>0.00041602640040000005</v>
+        <v>0.014783877388800002</v>
       </c>
     </row>
     <row r="49">
@@ -1841,25 +1841,25 @@
         <v>2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://use.typekit.net/sgo8muj.js</v>
+        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
       </c>
       <c r="C49" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D49" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E49">
-        <v>6933</v>
+        <v>1086</v>
       </c>
       <c r="F49">
-        <v>16816</v>
+        <v>5418</v>
       </c>
       <c r="G49">
-        <v>0.0020162065289999996</v>
+        <v>0.00031582291799999996</v>
       </c>
       <c r="H49">
-        <v>0.0026559033462000003</v>
+        <v>0.00041602640040000005</v>
       </c>
     </row>
     <row r="50">
@@ -1867,25 +1867,25 @@
         <v>2</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
+        <v>https://use.typekit.net/sgo8muj.js</v>
       </c>
       <c r="C50" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D50" t="str">
-        <v>image/webp</v>
+        <v>text/javascript</v>
       </c>
       <c r="E50">
-        <v>5034</v>
+        <v>6941</v>
       </c>
       <c r="F50">
-        <v>4484</v>
+        <v>16816</v>
       </c>
       <c r="G50">
-        <v>0.0014639526419999997</v>
+        <v>0.0020185330329999997</v>
       </c>
       <c r="H50">
-        <v>0.0019284317676000003</v>
+        <v>0.0026589679974000006</v>
       </c>
     </row>
     <row r="51">
@@ -1893,25 +1893,25 @@
         <v>2</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
       </c>
       <c r="C51" t="str">
         <v>Image</v>
       </c>
       <c r="D51" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E51">
-        <v>112826</v>
+        <v>5034</v>
       </c>
       <c r="F51">
-        <v>112238</v>
+        <v>4484</v>
       </c>
       <c r="G51">
-        <v>0.032811267538</v>
+        <v>0.0014639526419999997</v>
       </c>
       <c r="H51">
-        <v>0.043221542036399996</v>
+        <v>0.0019284317676000003</v>
       </c>
     </row>
     <row r="52">
@@ -1919,25 +1919,25 @@
         <v>2</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
+        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C52" t="str">
         <v>Image</v>
       </c>
       <c r="D52" t="str">
-        <v>image/svg+xml</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>819</v>
+        <v>112830</v>
       </c>
       <c r="F52">
-        <v>612</v>
+        <v>112238</v>
       </c>
       <c r="G52">
-        <v>0.00023817584699999998</v>
+        <v>0.03281243078999999</v>
       </c>
       <c r="H52">
-        <v>0.00031374366660000003</v>
+        <v>0.043223074362</v>
       </c>
     </row>
     <row r="53">
@@ -1945,25 +1945,25 @@
         <v>2</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
       </c>
       <c r="C53" t="str">
         <v>Image</v>
       </c>
       <c r="D53" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E53">
-        <v>66877</v>
+        <v>819</v>
       </c>
       <c r="F53">
-        <v>66344</v>
+        <v>612</v>
       </c>
       <c r="G53">
-        <v>0.019448701000999997</v>
+        <v>0.00023817584699999998</v>
       </c>
       <c r="H53">
-        <v>0.0256193347878</v>
+        <v>0.00031374366660000003</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C54" t="str">
         <v>Image</v>
@@ -1980,16 +1980,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E54">
-        <v>77916</v>
+        <v>66877</v>
       </c>
       <c r="F54">
-        <v>77372</v>
+        <v>66344</v>
       </c>
       <c r="G54">
-        <v>0.022658985708</v>
+        <v>0.019448701000999997</v>
       </c>
       <c r="H54">
-        <v>0.029848170362400003</v>
+        <v>0.0256193347878</v>
       </c>
     </row>
     <row r="55">
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C55" t="str">
         <v>Image</v>
@@ -2006,16 +2006,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E55">
-        <v>72516</v>
+        <v>77917</v>
       </c>
       <c r="F55">
-        <v>71982</v>
+        <v>77372</v>
       </c>
       <c r="G55">
-        <v>0.021088595507999998</v>
+        <v>0.022659276520999996</v>
       </c>
       <c r="H55">
-        <v>0.0277795308024</v>
+        <v>0.029848553443800007</v>
       </c>
     </row>
     <row r="56">
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C56" t="str">
         <v>Image</v>
@@ -2032,16 +2032,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E56">
-        <v>24285</v>
+        <v>72516</v>
       </c>
       <c r="F56">
-        <v>23748</v>
+        <v>71982</v>
       </c>
       <c r="G56">
-        <v>0.007062393704999999</v>
+        <v>0.021088595507999998</v>
       </c>
       <c r="H56">
-        <v>0.009303131799</v>
+        <v>0.0277795308024</v>
       </c>
     </row>
     <row r="57">
@@ -2049,25 +2049,25 @@
         <v>2</v>
       </c>
       <c r="B57" t="str">
-        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
       </c>
       <c r="C57" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D57" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E57">
-        <v>29648</v>
+        <v>24285</v>
       </c>
       <c r="F57">
-        <v>83615</v>
+        <v>23748</v>
       </c>
       <c r="G57">
-        <v>0.008622023823999998</v>
+        <v>0.007062393704999999</v>
       </c>
       <c r="H57">
-        <v>0.011357597347200002</v>
+        <v>0.009303131799</v>
       </c>
     </row>
     <row r="58">
@@ -2075,25 +2075,25 @@
         <v>2</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
+        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
       </c>
       <c r="C58" t="str">
         <v>Script</v>
       </c>
       <c r="D58" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E58">
-        <v>14008</v>
+        <v>29648</v>
       </c>
       <c r="F58">
-        <v>33942</v>
+        <v>83615</v>
       </c>
       <c r="G58">
-        <v>0.004073708503999999</v>
+        <v>0.008622023823999998</v>
       </c>
       <c r="H58">
-        <v>0.0053662042512</v>
+        <v>0.011357597347200002</v>
       </c>
     </row>
     <row r="59">
@@ -2101,25 +2101,25 @@
         <v>2</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
+        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
       </c>
       <c r="C59" t="str">
         <v>Script</v>
       </c>
       <c r="D59" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E59">
-        <v>105963</v>
+        <v>14008</v>
       </c>
       <c r="F59">
-        <v>243322</v>
+        <v>33942</v>
       </c>
       <c r="G59">
-        <v>0.030815417919</v>
+        <v>0.004073708503999999</v>
       </c>
       <c r="H59">
-        <v>0.04059245438820001</v>
+        <v>0.0053662042512</v>
       </c>
     </row>
     <row r="60">
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
+        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
       </c>
       <c r="C60" t="str">
         <v>Script</v>
@@ -2136,16 +2136,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E60">
-        <v>37145</v>
+        <v>105978</v>
       </c>
       <c r="F60">
-        <v>100455</v>
+        <v>243322</v>
       </c>
       <c r="G60">
-        <v>0.010802248884999999</v>
+        <v>0.030819780113999995</v>
       </c>
       <c r="H60">
-        <v>0.014229558603</v>
+        <v>0.040598200609200004</v>
       </c>
     </row>
     <row r="61">
@@ -2153,25 +2153,25 @@
         <v>2</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.youtube.com/iframe_api</v>
+        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
       </c>
       <c r="C61" t="str">
         <v>Script</v>
       </c>
       <c r="D61" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E61">
-        <v>3196</v>
+        <v>37145</v>
       </c>
       <c r="F61">
-        <v>993</v>
+        <v>100455</v>
       </c>
       <c r="G61">
-        <v>0.0009294383479999999</v>
+        <v>0.010802248884999999</v>
       </c>
       <c r="H61">
-        <v>0.0012243281544000002</v>
+        <v>0.014229558603</v>
       </c>
     </row>
     <row r="62">
@@ -2179,25 +2179,25 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
+        <v>https://www.youtube.com/iframe_api</v>
       </c>
       <c r="C62" t="str">
         <v>Script</v>
       </c>
       <c r="D62" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E62">
-        <v>2533</v>
+        <v>3197</v>
       </c>
       <c r="F62">
-        <v>5988</v>
+        <v>993</v>
       </c>
       <c r="G62">
-        <v>0.0007366293289999998</v>
+        <v>0.0009297291609999998</v>
       </c>
       <c r="H62">
-        <v>0.0009703451862</v>
+        <v>0.0012247112358</v>
       </c>
     </row>
     <row r="63">
@@ -2205,25 +2205,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
+        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
       </c>
       <c r="C63" t="str">
         <v>Script</v>
       </c>
       <c r="D63" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E63">
-        <v>46853</v>
+        <v>2533</v>
       </c>
       <c r="F63">
-        <v>123063</v>
+        <v>5988</v>
       </c>
       <c r="G63">
-        <v>0.013625461488999999</v>
+        <v>0.0007366293289999998</v>
       </c>
       <c r="H63">
-        <v>0.0179485128342</v>
+        <v>0.0009703451862</v>
       </c>
     </row>
     <row r="64">
@@ -2231,25 +2231,25 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
+        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
       </c>
       <c r="C64" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D64" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E64">
-        <v>1167</v>
+        <v>46829</v>
       </c>
       <c r="F64">
-        <v>1115</v>
+        <v>123063</v>
       </c>
       <c r="G64">
-        <v>0.00033937877099999994</v>
+        <v>0.013618481976999998</v>
       </c>
       <c r="H64">
-        <v>0.00044705599380000005</v>
+        <v>0.017939318880600005</v>
       </c>
     </row>
     <row r="65">
@@ -2257,25 +2257,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
+        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
       </c>
       <c r="C65" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D65" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E65">
-        <v>111953</v>
+        <v>1167</v>
       </c>
       <c r="F65">
-        <v>319133</v>
+        <v>1115</v>
       </c>
       <c r="G65">
-        <v>0.032557387789</v>
+        <v>0.00033937877099999994</v>
       </c>
       <c r="H65">
-        <v>0.042887111974200004</v>
+        <v>0.00044705599380000005</v>
       </c>
     </row>
     <row r="66">
@@ -2283,25 +2283,25 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
+        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
       </c>
       <c r="C66" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D66" t="str">
-        <v>image/webp</v>
+        <v>application/javascript</v>
       </c>
       <c r="E66">
-        <v>5034</v>
+        <v>113791</v>
       </c>
       <c r="F66">
-        <v>4484</v>
+        <v>324278</v>
       </c>
       <c r="G66">
-        <v>0.0014639526419999997</v>
+        <v>0.033091902082999995</v>
       </c>
       <c r="H66">
-        <v>0.0019284317676000003</v>
+        <v>0.043591215587400006</v>
       </c>
     </row>
     <row r="67">
@@ -2309,25 +2309,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
+        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
       </c>
       <c r="D67" t="str">
-        <v>image/svg+xml</v>
+        <v>image/webp</v>
       </c>
       <c r="E67">
-        <v>740</v>
+        <v>5034</v>
       </c>
       <c r="F67">
-        <v>510</v>
+        <v>4484</v>
       </c>
       <c r="G67">
-        <v>0.00021520161999999998</v>
+        <v>0.0014639526419999997</v>
       </c>
       <c r="H67">
-        <v>0.00028348023600000005</v>
+        <v>0.0019284317676000003</v>
       </c>
     </row>
     <row r="68">
@@ -2335,25 +2335,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
+        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
       </c>
       <c r="C68" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D68" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E68">
-        <v>35540</v>
+        <v>740</v>
       </c>
       <c r="F68">
-        <v>35508</v>
+        <v>510</v>
       </c>
       <c r="G68">
-        <v>0.010335494019999999</v>
+        <v>0.00021520161999999998</v>
       </c>
       <c r="H68">
-        <v>0.013614712956</v>
+        <v>0.00028348023600000005</v>
       </c>
     </row>
     <row r="69">
@@ -2361,25 +2361,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
+        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
       </c>
       <c r="C69" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D69" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E69">
-        <v>820</v>
+        <v>35540</v>
       </c>
       <c r="F69">
-        <v>581</v>
+        <v>35508</v>
       </c>
       <c r="G69">
-        <v>0.00023846665999999997</v>
+        <v>0.010335494019999999</v>
       </c>
       <c r="H69">
-        <v>0.000314126748</v>
+        <v>0.013614712956</v>
       </c>
     </row>
     <row r="70">
@@ -2387,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
@@ -2396,16 +2396,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E70">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F70">
         <v>581</v>
       </c>
       <c r="G70">
-        <v>0.00023788503399999996</v>
+        <v>0.00023846665999999997</v>
       </c>
       <c r="H70">
-        <v>0.00031336058520000005</v>
+        <v>0.000314126748</v>
       </c>
     </row>
     <row r="71">
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-petrolium-dark.svg</v>
       </c>
       <c r="C71" t="str">
         <v>Image</v>
@@ -2422,16 +2422,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>784</v>
+        <v>721</v>
       </c>
       <c r="F71">
-        <v>477</v>
+        <v>330</v>
       </c>
       <c r="G71">
-        <v>0.00022799739199999997</v>
+        <v>0.00020967617299999996</v>
       </c>
       <c r="H71">
-        <v>0.00030033581760000006</v>
+        <v>0.0002762016894</v>
       </c>
     </row>
     <row r="72">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
       </c>
       <c r="C72" t="str">
         <v>Image</v>
@@ -2448,16 +2448,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E72">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="F72">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="G72">
-        <v>0.00024573698499999995</v>
+        <v>0.00023788503399999996</v>
       </c>
       <c r="H72">
-        <v>0.000323703783</v>
+        <v>0.00031336058520000005</v>
       </c>
     </row>
     <row r="73">
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
       </c>
       <c r="C73" t="str">
         <v>Image</v>
@@ -2474,16 +2474,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>1506</v>
+        <v>784</v>
       </c>
       <c r="F73">
-        <v>2610</v>
+        <v>477</v>
       </c>
       <c r="G73">
-        <v>0.00043796437799999995</v>
+        <v>0.00022799739199999997</v>
       </c>
       <c r="H73">
-        <v>0.0005769205884000001</v>
+        <v>0.00030033581760000006</v>
       </c>
     </row>
     <row r="74">
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
       </c>
       <c r="C74" t="str">
         <v>Image</v>
@@ -2500,16 +2500,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E74">
-        <v>1309</v>
+        <v>845</v>
       </c>
       <c r="F74">
-        <v>1646</v>
+        <v>574</v>
       </c>
       <c r="G74">
-        <v>0.00038067421699999995</v>
+        <v>0.00024573698499999995</v>
       </c>
       <c r="H74">
-        <v>0.0005014535526000001</v>
+        <v>0.000323703783</v>
       </c>
     </row>
     <row r="75">
@@ -2517,7 +2517,7 @@
         <v>2</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
       </c>
       <c r="C75" t="str">
         <v>Image</v>
@@ -2526,16 +2526,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E75">
-        <v>822</v>
+        <v>1506</v>
       </c>
       <c r="F75">
-        <v>589</v>
+        <v>2610</v>
       </c>
       <c r="G75">
-        <v>0.00023904828599999995</v>
+        <v>0.00043796437799999995</v>
       </c>
       <c r="H75">
-        <v>0.0003148929108000001</v>
+        <v>0.0005769205884000001</v>
       </c>
     </row>
     <row r="76">
@@ -2543,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
       </c>
       <c r="C76" t="str">
         <v>Image</v>
@@ -2552,16 +2552,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E76">
-        <v>972</v>
+        <v>1309</v>
       </c>
       <c r="F76">
-        <v>884</v>
+        <v>1646</v>
       </c>
       <c r="G76">
-        <v>0.0002826702359999999</v>
+        <v>0.00038067421699999995</v>
       </c>
       <c r="H76">
-        <v>0.0003723551208</v>
+        <v>0.0005014535526000001</v>
       </c>
     </row>
     <row r="77">
@@ -2569,25 +2569,25 @@
         <v>2</v>
       </c>
       <c r="B77" t="str">
-        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
       </c>
       <c r="C77" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D77" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E77">
-        <v>33639</v>
+        <v>822</v>
       </c>
       <c r="F77">
-        <v>33400</v>
+        <v>589</v>
       </c>
       <c r="G77">
-        <v>0.009782658506999999</v>
+        <v>0.00023904828599999995</v>
       </c>
       <c r="H77">
-        <v>0.012886475214600002</v>
+        <v>0.0003148929108000001</v>
       </c>
     </row>
     <row r="78">
@@ -2595,25 +2595,25 @@
         <v>2</v>
       </c>
       <c r="B78" t="str">
-        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
+        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
       </c>
       <c r="C78" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D78" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E78">
-        <v>28227</v>
+        <v>972</v>
       </c>
       <c r="F78">
-        <v>27996</v>
+        <v>884</v>
       </c>
       <c r="G78">
-        <v>0.008208778550999999</v>
+        <v>0.0002826702359999999</v>
       </c>
       <c r="H78">
-        <v>0.010813238677800001</v>
+        <v>0.0003723551208</v>
       </c>
     </row>
     <row r="79">
@@ -2621,25 +2621,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
       </c>
       <c r="C79" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D79" t="str">
-        <v>text/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E79">
-        <v>10433</v>
+        <v>33639</v>
       </c>
       <c r="F79">
-        <v>30432</v>
+        <v>33400</v>
       </c>
       <c r="G79">
-        <v>0.0030340520289999996</v>
+        <v>0.009782658506999999</v>
       </c>
       <c r="H79">
-        <v>0.0039966882462000005</v>
+        <v>0.012886475214600002</v>
       </c>
     </row>
     <row r="80">
@@ -2647,25 +2647,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
+        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
       </c>
       <c r="C80" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D80" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E80">
-        <v>30656</v>
+        <v>28227</v>
       </c>
       <c r="F80">
-        <v>195553</v>
+        <v>27996</v>
       </c>
       <c r="G80">
-        <v>0.008915163327999999</v>
+        <v>0.008208778550999999</v>
       </c>
       <c r="H80">
-        <v>0.011743743398400001</v>
+        <v>0.010813238677800001</v>
       </c>
     </row>
     <row r="81">
@@ -2673,25 +2673,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5b71</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C81" t="str">
         <v>Script</v>
       </c>
       <c r="D81" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E81">
-        <v>163450</v>
+        <v>10432</v>
       </c>
       <c r="F81">
-        <v>497234</v>
+        <v>30432</v>
       </c>
       <c r="G81">
-        <v>0.04753338484999999</v>
+        <v>0.0030337612159999994</v>
       </c>
       <c r="H81">
-        <v>0.06261465482999999</v>
+        <v>0.0039963051648</v>
       </c>
     </row>
     <row r="82">
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
+        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
       </c>
       <c r="C82" t="str">
         <v>Script</v>
@@ -2708,16 +2708,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E82">
-        <v>88517</v>
+        <v>30656</v>
       </c>
       <c r="F82">
-        <v>333797</v>
+        <v>195553</v>
       </c>
       <c r="G82">
-        <v>0.025741894320999995</v>
+        <v>0.008915163327999999</v>
       </c>
       <c r="H82">
-        <v>0.0339092162838</v>
+        <v>0.011743743398400001</v>
       </c>
     </row>
     <row r="83">
@@ -2725,25 +2725,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1762813724994</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1</v>
       </c>
       <c r="C83" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D83" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E83">
-        <v>205</v>
+        <v>163217</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>496793</v>
       </c>
       <c r="G83">
-        <v>0.00005961666499999999</v>
+        <v>0.047465625420999996</v>
       </c>
       <c r="H83">
-        <v>0.000078531687</v>
+        <v>0.06252539686380001</v>
       </c>
     </row>
     <row r="84">
@@ -2751,25 +2751,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=558&amp;prev=d71f0b96-9057-40a0-c211-968ea0d74aed&amp;luid=c137c8fb-2bbd-7194-e437-acb60de48ec6&amp;rnd=60363</v>
+        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
       </c>
       <c r="C84" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D84" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E84">
-        <v>210</v>
+        <v>88517</v>
       </c>
       <c r="F84">
-        <v>34</v>
+        <v>333797</v>
       </c>
       <c r="G84">
-        <v>0.00006107072999999999</v>
+        <v>0.025741894320999995</v>
       </c>
       <c r="H84">
-        <v>0.00008044709400000001</v>
+        <v>0.0339092162838</v>
       </c>
     </row>
     <row r="85">
@@ -2777,25 +2777,25 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.baerum.kommune.no/favicon.ico</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140406140</v>
       </c>
       <c r="C85" t="str">
-        <v>Other</v>
+        <v>Image</v>
       </c>
       <c r="D85" t="str">
-        <v>image/x-icon</v>
+        <v>image/gif</v>
       </c>
       <c r="E85">
-        <v>2068</v>
+        <v>205</v>
       </c>
       <c r="F85">
-        <v>15086</v>
+        <v>35</v>
       </c>
       <c r="G85">
-        <v>0.000601401284</v>
+        <v>0.00005961666499999999</v>
       </c>
       <c r="H85">
-        <v>0.0007922123352000001</v>
+        <v>0.000078531687</v>
       </c>
     </row>
     <row r="86">
@@ -2803,22 +2803,25 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=503&amp;prev=d1bc602b-b8a9-0934-c51d-61eb3e5b328e&amp;luid=f9bf4704-9f97-ade7-4e2e-3dfaa1b721a2&amp;rnd=77323</v>
       </c>
       <c r="C86" t="str">
-        <v>Preflight</v>
+        <v>Image</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>image/gif</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="F86">
+        <v>34</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>0.00006107072999999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.00008044709400000001</v>
       </c>
     </row>
     <row r="87">
@@ -2826,25 +2829,22 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://www.googletagmanager.com/a?v=3&amp;t=l&amp;pid=1241648995&amp;rv=5bc1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115673441~115938465~115938469~116217636~116217638&amp;u=AAAAAIAC&amp;ut=AAAI&amp;h=Ag&amp;gtm=45He5bc1v71800422za200zd71800422&amp;ccid=1800422&amp;cid=GTM-NQN2N5&amp;l=L292.S3.Y1.B5.E192.I398.TC3.HTC1~gtm.init_consent.S0.V0.E5.TS5cvt.TI23.TE1~gtm.init.E3.TS5googtag.TI16.TE0.TS5html.TI3.TE0~gtm.js.S0.V0.E0~gtm.dom.S0.V0.E0~gtm.load.S0.V0.E0~SS114.10000002384186</v>
       </c>
       <c r="C87" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D87" t="str">
-        <v>application/json</v>
+        <v>text/html</v>
       </c>
       <c r="E87">
-        <v>200</v>
-      </c>
-      <c r="F87">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G87">
-        <v>0.00005816259999999999</v>
+        <v>0.0000031989429999999993</v>
       </c>
       <c r="H87">
-        <v>0.00007661628</v>
+        <v>0.0000042138954</v>
       </c>
     </row>
     <row r="88">
@@ -2852,22 +2852,25 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5b71v9118274999z871800422za200zb71800422zd71800422&amp;_p=1762813724840&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=1194530397.1762813726&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104684208~104684211~115583767~115938465~115938468~116217636~116217638~116424828&amp;sid=1762813725&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1091</v>
+        <v>https://www.baerum.kommune.no/favicon.ico</v>
       </c>
       <c r="C88" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D88" t="str">
-        <v>text/plain</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E88">
-        <v>553</v>
+        <v>2068</v>
+      </c>
+      <c r="F88">
+        <v>15086</v>
       </c>
       <c r="G88">
-        <v>0.00016081958899999998</v>
+        <v>0.000601401284</v>
       </c>
       <c r="H88">
-        <v>0.00021184401420000005</v>
+        <v>0.0007922123352000001</v>
       </c>
     </row>
     <row r="89">
@@ -2875,103 +2878,97 @@
         <v>2</v>
       </c>
       <c r="B89" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1762813726166&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C89" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D89" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E89">
-        <v>293</v>
-      </c>
-      <c r="F89">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>0.00008520820899999998</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>0.0001122428502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.baerum.kommune.no/</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C90" t="str">
-        <v>Document</v>
+        <v>XHR</v>
       </c>
       <c r="D90" t="str">
-        <v>text/html</v>
+        <v>application/json</v>
       </c>
       <c r="E90">
-        <v>11260</v>
+        <v>200</v>
       </c>
       <c r="F90">
-        <v>49311</v>
+        <v>96</v>
       </c>
       <c r="G90">
-        <v>0.003274554379999999</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H90">
-        <v>0.004313496564</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140405995&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=372727677.1763140407&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140406&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1007</v>
       </c>
       <c r="C91" t="str">
-        <v>Stylesheet</v>
+        <v>Fetch</v>
       </c>
       <c r="D91" t="str">
-        <v>text/css</v>
+        <v>text/plain</v>
       </c>
       <c r="E91">
-        <v>38589</v>
-      </c>
-      <c r="F91">
-        <v>157279</v>
+        <v>553</v>
       </c>
       <c r="G91">
-        <v>0.011222182856999998</v>
+        <v>0.00016081958899999998</v>
       </c>
       <c r="H91">
-        <v>0.014782728144600002</v>
+        <v>0.00021184401420000005</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" t="str">
-        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140407322&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
       </c>
       <c r="C92" t="str">
-        <v>Stylesheet</v>
+        <v>XHR</v>
       </c>
       <c r="D92" t="str">
-        <v>text/css</v>
+        <v>application/json</v>
       </c>
       <c r="E92">
-        <v>1086</v>
+        <v>293</v>
       </c>
       <c r="F92">
-        <v>5418</v>
+        <v>47</v>
       </c>
       <c r="G92">
-        <v>0.00031582291799999996</v>
+        <v>0.00008520820899999998</v>
       </c>
       <c r="H92">
-        <v>0.00041602640040000005</v>
+        <v>0.0001122428502</v>
       </c>
     </row>
     <row r="93">
@@ -2979,25 +2976,25 @@
         <v>3</v>
       </c>
       <c r="B93" t="str">
-        <v>https://use.typekit.net/sgo8muj.js</v>
+        <v>https://www.baerum.kommune.no/</v>
       </c>
       <c r="C93" t="str">
-        <v>Script</v>
+        <v>Document</v>
       </c>
       <c r="D93" t="str">
-        <v>text/javascript</v>
+        <v>text/html</v>
       </c>
       <c r="E93">
-        <v>6933</v>
+        <v>11452</v>
       </c>
       <c r="F93">
-        <v>16816</v>
+        <v>49489</v>
       </c>
       <c r="G93">
-        <v>0.0020162065289999996</v>
+        <v>0.0033303904759999993</v>
       </c>
       <c r="H93">
-        <v>0.0026559033462000003</v>
+        <v>0.0043870481928</v>
       </c>
     </row>
     <row r="94">
@@ -3005,25 +3002,25 @@
         <v>3</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
+        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
       </c>
       <c r="C94" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D94" t="str">
-        <v>image/webp</v>
+        <v>text/css</v>
       </c>
       <c r="E94">
-        <v>5034</v>
+        <v>38586</v>
       </c>
       <c r="F94">
-        <v>4484</v>
+        <v>157279</v>
       </c>
       <c r="G94">
-        <v>0.0014639526419999997</v>
+        <v>0.011221310418</v>
       </c>
       <c r="H94">
-        <v>0.0019284317676000003</v>
+        <v>0.0147815789004</v>
       </c>
     </row>
     <row r="95">
@@ -3031,25 +3028,25 @@
         <v>3</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
+        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
       </c>
       <c r="C95" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D95" t="str">
-        <v>image/jpeg</v>
+        <v>text/css</v>
       </c>
       <c r="E95">
-        <v>112844</v>
+        <v>1086</v>
       </c>
       <c r="F95">
-        <v>112238</v>
+        <v>5418</v>
       </c>
       <c r="G95">
-        <v>0.032816502172</v>
+        <v>0.00031582291799999996</v>
       </c>
       <c r="H95">
-        <v>0.043228437501600006</v>
+        <v>0.00041602640040000005</v>
       </c>
     </row>
     <row r="96">
@@ -3057,25 +3054,25 @@
         <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
+        <v>https://use.typekit.net/sgo8muj.js</v>
       </c>
       <c r="C96" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D96" t="str">
-        <v>image/svg+xml</v>
+        <v>text/javascript</v>
       </c>
       <c r="E96">
-        <v>819</v>
+        <v>6931</v>
       </c>
       <c r="F96">
-        <v>612</v>
+        <v>16816</v>
       </c>
       <c r="G96">
-        <v>0.00023817584699999998</v>
+        <v>0.0020156249029999996</v>
       </c>
       <c r="H96">
-        <v>0.00031374366660000003</v>
+        <v>0.0026551371834</v>
       </c>
     </row>
     <row r="97">
@@ -3083,25 +3080,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
       </c>
       <c r="C97" t="str">
         <v>Image</v>
       </c>
       <c r="D97" t="str">
-        <v>image/jpeg</v>
+        <v>image/webp</v>
       </c>
       <c r="E97">
-        <v>66883</v>
+        <v>5034</v>
       </c>
       <c r="F97">
-        <v>66344</v>
+        <v>4484</v>
       </c>
       <c r="G97">
-        <v>0.019450445878999995</v>
+        <v>0.0014639526419999997</v>
       </c>
       <c r="H97">
-        <v>0.0256216332762</v>
+        <v>0.0019284317676000003</v>
       </c>
     </row>
     <row r="98">
@@ -3109,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C98" t="str">
         <v>Image</v>
@@ -3118,16 +3115,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E98">
-        <v>77917</v>
+        <v>112835</v>
       </c>
       <c r="F98">
-        <v>77372</v>
+        <v>112238</v>
       </c>
       <c r="G98">
-        <v>0.022659276520999996</v>
+        <v>0.032813884854999996</v>
       </c>
       <c r="H98">
-        <v>0.029848553443800007</v>
+        <v>0.043224989769</v>
       </c>
     </row>
     <row r="99">
@@ -3135,25 +3132,25 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
       </c>
       <c r="C99" t="str">
         <v>Image</v>
       </c>
       <c r="D99" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E99">
-        <v>72516</v>
+        <v>819</v>
       </c>
       <c r="F99">
-        <v>71982</v>
+        <v>612</v>
       </c>
       <c r="G99">
-        <v>0.021088595507999998</v>
+        <v>0.00023817584699999998</v>
       </c>
       <c r="H99">
-        <v>0.0277795308024</v>
+        <v>0.00031374366660000003</v>
       </c>
     </row>
     <row r="100">
@@ -3161,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
+        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C100" t="str">
         <v>Image</v>
@@ -3170,16 +3167,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E100">
-        <v>24285</v>
+        <v>66884</v>
       </c>
       <c r="F100">
-        <v>23748</v>
+        <v>66344</v>
       </c>
       <c r="G100">
-        <v>0.007062393704999999</v>
+        <v>0.019450736691999995</v>
       </c>
       <c r="H100">
-        <v>0.009303131799</v>
+        <v>0.025622016357600003</v>
       </c>
     </row>
     <row r="101">
@@ -3187,25 +3184,25 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C101" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D101" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>29648</v>
+        <v>77908</v>
       </c>
       <c r="F101">
-        <v>83615</v>
+        <v>77372</v>
       </c>
       <c r="G101">
-        <v>0.008622023823999998</v>
+        <v>0.022656659204</v>
       </c>
       <c r="H101">
-        <v>0.011357597347200002</v>
+        <v>0.029845105711200005</v>
       </c>
     </row>
     <row r="102">
@@ -3213,25 +3210,25 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C102" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D102" t="str">
-        <v>text/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>14008</v>
+        <v>72516</v>
       </c>
       <c r="F102">
-        <v>33942</v>
+        <v>71982</v>
       </c>
       <c r="G102">
-        <v>0.004073708503999999</v>
+        <v>0.021088595507999998</v>
       </c>
       <c r="H102">
-        <v>0.0053662042512</v>
+        <v>0.0277795308024</v>
       </c>
     </row>
     <row r="103">
@@ -3239,25 +3236,25 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
       </c>
       <c r="C103" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D103" t="str">
-        <v>application/javascript</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>105960</v>
+        <v>24280</v>
       </c>
       <c r="F103">
-        <v>243322</v>
+        <v>23748</v>
       </c>
       <c r="G103">
-        <v>0.030814545479999993</v>
+        <v>0.007060939639999999</v>
       </c>
       <c r="H103">
-        <v>0.040591305144</v>
+        <v>0.009301216392</v>
       </c>
     </row>
     <row r="104">
@@ -3265,7 +3262,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
+        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
       </c>
       <c r="C104" t="str">
         <v>Script</v>
@@ -3274,16 +3271,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E104">
-        <v>37145</v>
+        <v>29648</v>
       </c>
       <c r="F104">
-        <v>100455</v>
+        <v>83615</v>
       </c>
       <c r="G104">
-        <v>0.010802248884999999</v>
+        <v>0.008622023823999998</v>
       </c>
       <c r="H104">
-        <v>0.014229558603</v>
+        <v>0.011357597347200002</v>
       </c>
     </row>
     <row r="105">
@@ -3291,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.youtube.com/iframe_api</v>
+        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
       </c>
       <c r="C105" t="str">
         <v>Script</v>
@@ -3300,16 +3297,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E105">
-        <v>3196</v>
+        <v>14005</v>
       </c>
       <c r="F105">
-        <v>993</v>
+        <v>33942</v>
       </c>
       <c r="G105">
-        <v>0.0009294383479999999</v>
+        <v>0.004072836065</v>
       </c>
       <c r="H105">
-        <v>0.0012243281544000002</v>
+        <v>0.005365055007000001</v>
       </c>
     </row>
     <row r="106">
@@ -3317,25 +3314,25 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
+        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
       </c>
       <c r="C106" t="str">
         <v>Script</v>
       </c>
       <c r="D106" t="str">
-        <v>application/x-javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E106">
-        <v>2533</v>
+        <v>105964</v>
       </c>
       <c r="F106">
-        <v>5988</v>
+        <v>243322</v>
       </c>
       <c r="G106">
-        <v>0.0007366293289999998</v>
+        <v>0.030815708731999996</v>
       </c>
       <c r="H106">
-        <v>0.0009703451862</v>
+        <v>0.040592837469600004</v>
       </c>
     </row>
     <row r="107">
@@ -3343,25 +3340,25 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
+        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
       </c>
       <c r="D107" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E107">
-        <v>46828</v>
+        <v>37151</v>
       </c>
       <c r="F107">
-        <v>123063</v>
+        <v>100455</v>
       </c>
       <c r="G107">
-        <v>0.013618191164</v>
+        <v>0.010803993763</v>
       </c>
       <c r="H107">
-        <v>0.017938935799200004</v>
+        <v>0.0142318570914</v>
       </c>
     </row>
     <row r="108">
@@ -3369,25 +3366,25 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
+        <v>https://www.youtube.com/iframe_api</v>
       </c>
       <c r="C108" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D108" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E108">
-        <v>1167</v>
+        <v>3198</v>
       </c>
       <c r="F108">
-        <v>1115</v>
+        <v>993</v>
       </c>
       <c r="G108">
-        <v>0.00033937877099999994</v>
+        <v>0.0009300199739999998</v>
       </c>
       <c r="H108">
-        <v>0.00044705599380000005</v>
+        <v>0.0012250943172000001</v>
       </c>
     </row>
     <row r="109">
@@ -3395,25 +3392,25 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
+        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
       </c>
       <c r="C109" t="str">
         <v>Script</v>
       </c>
       <c r="D109" t="str">
-        <v>application/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E109">
-        <v>111652</v>
+        <v>2533</v>
       </c>
       <c r="F109">
-        <v>318656</v>
+        <v>5988</v>
       </c>
       <c r="G109">
-        <v>0.03246985307599999</v>
+        <v>0.0007366293289999998</v>
       </c>
       <c r="H109">
-        <v>0.042771804472800004</v>
+        <v>0.0009703451862</v>
       </c>
     </row>
     <row r="110">
@@ -3421,25 +3418,25 @@
         <v>3</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
+        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
       </c>
       <c r="C110" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D110" t="str">
-        <v>image/webp</v>
+        <v>text/javascript</v>
       </c>
       <c r="E110">
-        <v>5034</v>
+        <v>46830</v>
       </c>
       <c r="F110">
-        <v>4484</v>
+        <v>123063</v>
       </c>
       <c r="G110">
-        <v>0.0014639526419999997</v>
+        <v>0.013618772789999999</v>
       </c>
       <c r="H110">
-        <v>0.0019284317676000003</v>
+        <v>0.017939701962000003</v>
       </c>
     </row>
     <row r="111">
@@ -3447,25 +3444,25 @@
         <v>3</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
+        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
       </c>
       <c r="C111" t="str">
-        <v>Image</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D111" t="str">
-        <v>image/svg+xml</v>
+        <v>text/css</v>
       </c>
       <c r="E111">
-        <v>740</v>
+        <v>1167</v>
       </c>
       <c r="F111">
-        <v>510</v>
+        <v>1115</v>
       </c>
       <c r="G111">
-        <v>0.00021520161999999998</v>
+        <v>0.00033937877099999994</v>
       </c>
       <c r="H111">
-        <v>0.00028348023600000005</v>
+        <v>0.00044705599380000005</v>
       </c>
     </row>
     <row r="112">
@@ -3473,25 +3470,25 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
+        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
       </c>
       <c r="C112" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D112" t="str">
-        <v>font/woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E112">
-        <v>35540</v>
+        <v>112095</v>
       </c>
       <c r="F112">
-        <v>35508</v>
+        <v>319854</v>
       </c>
       <c r="G112">
-        <v>0.010335494019999999</v>
+        <v>0.032598683234999995</v>
       </c>
       <c r="H112">
-        <v>0.013614712956</v>
+        <v>0.04294150953300001</v>
       </c>
     </row>
     <row r="113">
@@ -3499,25 +3496,25 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
+        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
       </c>
       <c r="C113" t="str">
         <v>Image</v>
       </c>
       <c r="D113" t="str">
-        <v>image/svg+xml</v>
+        <v>image/webp</v>
       </c>
       <c r="E113">
-        <v>820</v>
+        <v>5034</v>
       </c>
       <c r="F113">
-        <v>581</v>
+        <v>4484</v>
       </c>
       <c r="G113">
-        <v>0.00023846665999999997</v>
+        <v>0.0014639526419999997</v>
       </c>
       <c r="H113">
-        <v>0.000314126748</v>
+        <v>0.0019284317676000003</v>
       </c>
     </row>
     <row r="114">
@@ -3525,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
       </c>
       <c r="C114" t="str">
         <v>Image</v>
@@ -3534,16 +3531,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E114">
-        <v>818</v>
+        <v>740</v>
       </c>
       <c r="F114">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="G114">
-        <v>0.00023788503399999996</v>
+        <v>0.00021520161999999998</v>
       </c>
       <c r="H114">
-        <v>0.00031336058520000005</v>
+        <v>0.00028348023600000005</v>
       </c>
     </row>
     <row r="115">
@@ -3551,25 +3548,25 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
+        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
       </c>
       <c r="C115" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D115" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E115">
-        <v>784</v>
+        <v>35540</v>
       </c>
       <c r="F115">
-        <v>477</v>
+        <v>35508</v>
       </c>
       <c r="G115">
-        <v>0.00022799739199999997</v>
+        <v>0.010335494019999999</v>
       </c>
       <c r="H115">
-        <v>0.00030033581760000006</v>
+        <v>0.013614712956</v>
       </c>
     </row>
     <row r="116">
@@ -3577,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3586,16 +3583,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E116">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="F116">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="G116">
-        <v>0.00024573698499999995</v>
+        <v>0.00023846665999999997</v>
       </c>
       <c r="H116">
-        <v>0.000323703783</v>
+        <v>0.000314126748</v>
       </c>
     </row>
     <row r="117">
@@ -3603,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-petrolium-dark.svg</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
@@ -3612,16 +3609,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E117">
-        <v>1506</v>
+        <v>721</v>
       </c>
       <c r="F117">
-        <v>2610</v>
+        <v>330</v>
       </c>
       <c r="G117">
-        <v>0.00043796437799999995</v>
+        <v>0.00020967617299999996</v>
       </c>
       <c r="H117">
-        <v>0.0005769205884000001</v>
+        <v>0.0002762016894</v>
       </c>
     </row>
     <row r="118">
@@ -3629,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
       </c>
       <c r="C118" t="str">
         <v>Image</v>
@@ -3638,16 +3635,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E118">
-        <v>1309</v>
+        <v>818</v>
       </c>
       <c r="F118">
-        <v>1646</v>
+        <v>581</v>
       </c>
       <c r="G118">
-        <v>0.00038067421699999995</v>
+        <v>0.00023788503399999996</v>
       </c>
       <c r="H118">
-        <v>0.0005014535526000001</v>
+        <v>0.00031336058520000005</v>
       </c>
     </row>
     <row r="119">
@@ -3655,7 +3652,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
       </c>
       <c r="C119" t="str">
         <v>Image</v>
@@ -3664,16 +3661,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E119">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="F119">
-        <v>589</v>
+        <v>477</v>
       </c>
       <c r="G119">
-        <v>0.00023904828599999995</v>
+        <v>0.00022799739199999997</v>
       </c>
       <c r="H119">
-        <v>0.0003148929108000001</v>
+        <v>0.00030033581760000006</v>
       </c>
     </row>
     <row r="120">
@@ -3681,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
       </c>
       <c r="C120" t="str">
         <v>Image</v>
@@ -3690,16 +3687,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E120">
-        <v>972</v>
+        <v>845</v>
       </c>
       <c r="F120">
-        <v>884</v>
+        <v>574</v>
       </c>
       <c r="G120">
-        <v>0.0002826702359999999</v>
+        <v>0.00024573698499999995</v>
       </c>
       <c r="H120">
-        <v>0.0003723551208</v>
+        <v>0.000323703783</v>
       </c>
     </row>
     <row r="121">
@@ -3707,25 +3704,25 @@
         <v>3</v>
       </c>
       <c r="B121" t="str">
-        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
+        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
       </c>
       <c r="C121" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D121" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E121">
-        <v>33639</v>
+        <v>1506</v>
       </c>
       <c r="F121">
-        <v>33400</v>
+        <v>2610</v>
       </c>
       <c r="G121">
-        <v>0.009782658506999999</v>
+        <v>0.00043796437799999995</v>
       </c>
       <c r="H121">
-        <v>0.012886475214600002</v>
+        <v>0.0005769205884000001</v>
       </c>
     </row>
     <row r="122">
@@ -3733,25 +3730,25 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
+        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
       </c>
       <c r="C122" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D122" t="str">
-        <v>application/font-woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E122">
-        <v>28227</v>
+        <v>1309</v>
       </c>
       <c r="F122">
-        <v>27996</v>
+        <v>1646</v>
       </c>
       <c r="G122">
-        <v>0.008208778550999999</v>
+        <v>0.00038067421699999995</v>
       </c>
       <c r="H122">
-        <v>0.010813238677800001</v>
+        <v>0.0005014535526000001</v>
       </c>
     </row>
     <row r="123">
@@ -3759,25 +3756,25 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.youtube.com/s/player/19712d96/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
       </c>
       <c r="C123" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D123" t="str">
-        <v>text/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E123">
-        <v>10434</v>
+        <v>822</v>
       </c>
       <c r="F123">
-        <v>30432</v>
+        <v>589</v>
       </c>
       <c r="G123">
-        <v>0.0030343428419999994</v>
+        <v>0.00023904828599999995</v>
       </c>
       <c r="H123">
-        <v>0.0039970713276000006</v>
+        <v>0.0003148929108000001</v>
       </c>
     </row>
     <row r="124">
@@ -3785,25 +3782,25 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
+        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
       </c>
       <c r="C124" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D124" t="str">
-        <v>application/javascript</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E124">
-        <v>30656</v>
+        <v>972</v>
       </c>
       <c r="F124">
-        <v>195553</v>
+        <v>884</v>
       </c>
       <c r="G124">
-        <v>0.008915163327999999</v>
+        <v>0.0002826702359999999</v>
       </c>
       <c r="H124">
-        <v>0.011743743398400001</v>
+        <v>0.0003723551208</v>
       </c>
     </row>
     <row r="125">
@@ -3811,25 +3808,25 @@
         <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5b60</v>
+        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
       </c>
       <c r="C125" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D125" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E125">
-        <v>163146</v>
+        <v>33637</v>
       </c>
       <c r="F125">
-        <v>496728</v>
+        <v>33400</v>
       </c>
       <c r="G125">
-        <v>0.04744497769799999</v>
+        <v>0.009782076880999998</v>
       </c>
       <c r="H125">
-        <v>0.06249819808439999</v>
+        <v>0.012885709051800004</v>
       </c>
     </row>
     <row r="126">
@@ -3837,25 +3834,25 @@
         <v>3</v>
       </c>
       <c r="B126" t="str">
-        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
+        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
       </c>
       <c r="C126" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D126" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E126">
-        <v>88527</v>
+        <v>28226</v>
       </c>
       <c r="F126">
-        <v>333797</v>
+        <v>27996</v>
       </c>
       <c r="G126">
-        <v>0.025744802451</v>
+        <v>0.008208487737999998</v>
       </c>
       <c r="H126">
-        <v>0.033913047097800006</v>
+        <v>0.0108128555964</v>
       </c>
     </row>
     <row r="127">
@@ -3863,25 +3860,25 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1762813738177</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C127" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D127" t="str">
-        <v>image/gif</v>
+        <v>text/javascript</v>
       </c>
       <c r="E127">
-        <v>205</v>
+        <v>10433</v>
       </c>
       <c r="F127">
-        <v>35</v>
+        <v>30432</v>
       </c>
       <c r="G127">
-        <v>0.00005961666499999999</v>
+        <v>0.0030340520289999996</v>
       </c>
       <c r="H127">
-        <v>0.000078531687</v>
+        <v>0.0039966882462000005</v>
       </c>
     </row>
     <row r="128">
@@ -3889,25 +3886,25 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=459&amp;prev=4c319472-0ef1-0838-2301-1632b10a2683&amp;luid=db04c18f-e780-c5dc-945e-3bc12f8b4cde&amp;rnd=85567</v>
+        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
       </c>
       <c r="C128" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D128" t="str">
-        <v>image/gif</v>
+        <v>application/javascript</v>
       </c>
       <c r="E128">
-        <v>210</v>
+        <v>30656</v>
       </c>
       <c r="F128">
-        <v>34</v>
+        <v>195553</v>
       </c>
       <c r="G128">
-        <v>0.00006107072999999999</v>
+        <v>0.008915163327999999</v>
       </c>
       <c r="H128">
-        <v>0.00008044709400000001</v>
+        <v>0.011743743398400001</v>
       </c>
     </row>
     <row r="129">
@@ -3915,25 +3912,25 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.baerum.kommune.no/favicon.ico</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1h1</v>
       </c>
       <c r="C129" t="str">
-        <v>Other</v>
+        <v>Script</v>
       </c>
       <c r="D129" t="str">
-        <v>image/x-icon</v>
+        <v>application/javascript</v>
       </c>
       <c r="E129">
-        <v>2068</v>
+        <v>163214</v>
       </c>
       <c r="F129">
-        <v>15086</v>
+        <v>496793</v>
       </c>
       <c r="G129">
-        <v>0.000601401284</v>
+        <v>0.047464752981999994</v>
       </c>
       <c r="H129">
-        <v>0.0007922123352000001</v>
+        <v>0.06252424761960002</v>
       </c>
     </row>
     <row r="130">
@@ -3941,22 +3938,25 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
       </c>
       <c r="C130" t="str">
-        <v>Preflight</v>
+        <v>Script</v>
       </c>
       <c r="D130" t="str">
-        <v/>
+        <v>application/javascript</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>88527</v>
+      </c>
+      <c r="F130">
+        <v>333797</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.025744802451</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>0.033913047097800006</v>
       </c>
     </row>
     <row r="131">
@@ -3964,25 +3964,25 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140419356</v>
       </c>
       <c r="C131" t="str">
-        <v>XHR</v>
+        <v>Image</v>
       </c>
       <c r="D131" t="str">
-        <v>application/json</v>
+        <v>image/gif</v>
       </c>
       <c r="E131">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F131">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="G131">
-        <v>0.00005816259999999999</v>
+        <v>0.00005961666499999999</v>
       </c>
       <c r="H131">
-        <v>0.00007661628</v>
+        <v>0.000078531687</v>
       </c>
     </row>
     <row r="132">
@@ -3990,22 +3990,25 @@
         <v>3</v>
       </c>
       <c r="B132" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5b60v9118274999z871800422za200zb71800422zd71800422&amp;_p=1762813738041&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=2126445568.1762813739&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104684208~104684211~115583767~115616985~115938465~115938469~116217636~116217638&amp;sid=1762813738&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1002</v>
+        <v>https://www.baerum.kommune.no/favicon.ico</v>
       </c>
       <c r="C132" t="str">
-        <v>Fetch</v>
+        <v>Other</v>
       </c>
       <c r="D132" t="str">
-        <v>text/plain</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E132">
-        <v>553</v>
+        <v>2068</v>
+      </c>
+      <c r="F132">
+        <v>15086</v>
       </c>
       <c r="G132">
-        <v>0.00016081958899999998</v>
+        <v>0.000601401284</v>
       </c>
       <c r="H132">
-        <v>0.00021184401420000005</v>
+        <v>0.0007922123352000001</v>
       </c>
     </row>
     <row r="133">
@@ -4013,30 +4016,128 @@
         <v>3</v>
       </c>
       <c r="B133" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1762813739342&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C133" t="str">
+        <v>Preflight</v>
+      </c>
+      <c r="D133" t="str">
+        <v/>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="str">
+        <v>https://dc.services.visualstudio.com/v2/track</v>
+      </c>
+      <c r="C134" t="str">
         <v>XHR</v>
       </c>
-      <c r="D133" t="str">
+      <c r="D134" t="str">
         <v>application/json</v>
       </c>
-      <c r="E133">
+      <c r="E134">
+        <v>200</v>
+      </c>
+      <c r="F134">
+        <v>96</v>
+      </c>
+      <c r="G134">
+        <v>0.00005816259999999999</v>
+      </c>
+      <c r="H134">
+        <v>0.00007661628</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>3</v>
+      </c>
+      <c r="B135" t="str">
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=496&amp;prev=08055643-3a0e-6279-872b-7a382339a3bc&amp;luid=bcdb6d5b-9305-9ad8-3454-74dc7ad2e623&amp;rnd=16602</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Image</v>
+      </c>
+      <c r="D135" t="str">
+        <v>image/gif</v>
+      </c>
+      <c r="E135">
+        <v>210</v>
+      </c>
+      <c r="F135">
+        <v>34</v>
+      </c>
+      <c r="G135">
+        <v>0.00006107072999999999</v>
+      </c>
+      <c r="H135">
+        <v>0.00008044709400000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136" t="str">
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1h1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140419209&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=683618264.1763140420&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140419&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1030</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Fetch</v>
+      </c>
+      <c r="D136" t="str">
+        <v>text/plain</v>
+      </c>
+      <c r="E136">
+        <v>553</v>
+      </c>
+      <c r="G136">
+        <v>0.00016081958899999998</v>
+      </c>
+      <c r="H136">
+        <v>0.00021184401420000005</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="str">
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140420519&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+      </c>
+      <c r="C137" t="str">
+        <v>XHR</v>
+      </c>
+      <c r="D137" t="str">
+        <v>application/json</v>
+      </c>
+      <c r="E137">
         <v>293</v>
       </c>
-      <c r="F133">
+      <c r="F137">
         <v>47</v>
       </c>
-      <c r="G133">
+      <c r="G137">
         <v>0.00008520820899999998</v>
       </c>
-      <c r="H133">
+      <c r="H137">
         <v>0.0001122428502</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H133"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H137"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4070,10 +4171,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>33735</v>
+        <v>34245</v>
       </c>
       <c r="D2">
-        <v>147933</v>
+        <v>148467</v>
       </c>
     </row>
     <row r="3">
@@ -4084,7 +4185,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>122523</v>
+        <v>122525</v>
       </c>
       <c r="D3">
         <v>491436</v>
@@ -4098,10 +4199,10 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>1953614</v>
+        <v>1955267</v>
       </c>
       <c r="D4">
-        <v>5952046</v>
+        <v>5958293</v>
       </c>
     </row>
     <row r="5">
@@ -4109,13 +4210,13 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>1123032</v>
+        <v>1125194</v>
       </c>
       <c r="D5">
-        <v>1109355</v>
+        <v>1110345</v>
       </c>
     </row>
     <row r="6">
@@ -4126,7 +4227,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>292218</v>
+        <v>292213</v>
       </c>
       <c r="D6">
         <v>290712</v>
@@ -4154,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D8">
         <v>429</v>
@@ -4221,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1178608</v>
+        <v>1179001</v>
       </c>
       <c r="C2">
-        <v>0.34275452830399994</v>
+        <v>0.34286881781299994</v>
       </c>
       <c r="D2">
-        <v>0.45150280269120013</v>
+        <v>0.4516533536814001</v>
       </c>
     </row>
     <row r="3">
@@ -4235,13 +4336,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1178205</v>
+        <v>1180729</v>
       </c>
       <c r="C3">
-        <v>0.34263733066499996</v>
+        <v>0.3433713426769999</v>
       </c>
       <c r="D3">
-        <v>0.45134842088700006</v>
+        <v>0.45231531834059996</v>
       </c>
     </row>
     <row r="4">
@@ -4249,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1177651</v>
+        <v>1179055</v>
       </c>
       <c r="C4">
-        <v>0.34247622026299995</v>
+        <v>0.34288452171499995</v>
       </c>
       <c r="D4">
-        <v>0.4511361937914001</v>
+        <v>0.451674040077</v>
       </c>
     </row>
     <row r="5">
@@ -4263,13 +4364,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1178205</v>
+        <v>1179055</v>
       </c>
       <c r="C5">
-        <v>0.34263733066499996</v>
+        <v>0.34288452171499995</v>
       </c>
       <c r="D5">
-        <v>0.45134842088700006</v>
+        <v>0.451674040077</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.baerum.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.baerum.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10551.65888</v>
+        <v>10608.489880000001</v>
       </c>
       <c r="C2">
-        <v>2546.7829999999994</v>
+        <v>2527.018</v>
       </c>
       <c r="D2">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E2">
-        <v>10592.35713</v>
+        <v>10658.023480000002</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5022.827624124038</v>
+        <v>4546.648949343593</v>
       </c>
       <c r="I2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J2">
-        <v>1179001</v>
+        <v>1178981</v>
       </c>
       <c r="K2">
         <v>45</v>
@@ -480,34 +480,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10266.412999999997</v>
+        <v>10519.116120000002</v>
       </c>
       <c r="C3">
-        <v>2525.4310000000005</v>
+        <v>2527.611</v>
       </c>
       <c r="D3">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E3">
-        <v>10318.912999999999</v>
+        <v>10568.186720000002</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4998.425864178345</v>
+        <v>5176.652424423108</v>
       </c>
       <c r="I3">
         <v>68</v>
       </c>
       <c r="J3">
-        <v>1180729</v>
+        <v>1179440</v>
       </c>
       <c r="K3">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10332.293000000003</v>
+        <v>10588.244879999998</v>
       </c>
       <c r="C4">
-        <v>2530.317</v>
+        <v>2553.988</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E4">
-        <v>10374.188000000004</v>
+        <v>10629.55063</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5041.543242615004</v>
+        <v>5194.7032136879425</v>
       </c>
       <c r="I4">
         <v>68</v>
       </c>
       <c r="J4">
-        <v>1179055</v>
+        <v>1179026</v>
       </c>
       <c r="K4">
         <v>45</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>10332.293000000003</v>
+        <v>10588.244879999998</v>
       </c>
       <c r="C5">
-        <v>2530.317</v>
+        <v>2527.611</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E5">
-        <v>10374.188000000004</v>
+        <v>10629.55063</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5022.827624124038</v>
+        <v>5176.652424423108</v>
       </c>
       <c r="I5">
         <v>68</v>
       </c>
       <c r="J5">
-        <v>1179055</v>
+        <v>1179026</v>
       </c>
       <c r="K5">
         <v>45</v>
@@ -589,7 +589,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>11396</v>
+        <v>11394</v>
       </c>
       <c r="F2">
         <v>49489</v>
       </c>
       <c r="G2">
-        <v>0.0033141049479999997</v>
+        <v>0.0033135233219999997</v>
       </c>
       <c r="H2">
-        <v>0.0043655956344</v>
+        <v>0.004364829471600001</v>
       </c>
     </row>
     <row r="3">
@@ -660,16 +660,16 @@
         <v>text/css</v>
       </c>
       <c r="E3">
-        <v>38587</v>
+        <v>38589</v>
       </c>
       <c r="F3">
         <v>157279</v>
       </c>
       <c r="G3">
-        <v>0.011221601230999998</v>
+        <v>0.011222182856999998</v>
       </c>
       <c r="H3">
-        <v>0.0147819619818</v>
+        <v>0.014782728144600002</v>
       </c>
     </row>
     <row r="4">
@@ -738,16 +738,16 @@
         <v>image/webp</v>
       </c>
       <c r="E6">
-        <v>5034</v>
+        <v>5037</v>
       </c>
       <c r="F6">
         <v>4484</v>
       </c>
       <c r="G6">
-        <v>0.0014639526419999997</v>
+        <v>0.0014648250809999998</v>
       </c>
       <c r="H6">
-        <v>0.0019284317676000003</v>
+        <v>0.0019295810118000003</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +764,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E7">
-        <v>112823</v>
+        <v>112812</v>
       </c>
       <c r="F7">
         <v>112238</v>
       </c>
       <c r="G7">
-        <v>0.032810395098999995</v>
+        <v>0.032807196156</v>
       </c>
       <c r="H7">
-        <v>0.0432203927922</v>
+        <v>0.04321617889680001</v>
       </c>
     </row>
     <row r="8">
@@ -842,16 +842,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E10">
-        <v>77913</v>
+        <v>77917</v>
       </c>
       <c r="F10">
         <v>77372</v>
       </c>
       <c r="G10">
-        <v>0.022658113268999996</v>
+        <v>0.022659276520999996</v>
       </c>
       <c r="H10">
-        <v>0.0298470211182</v>
+        <v>0.029848553443800007</v>
       </c>
     </row>
     <row r="11">
@@ -894,16 +894,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E12">
-        <v>24283</v>
+        <v>24285</v>
       </c>
       <c r="F12">
         <v>23748</v>
       </c>
       <c r="G12">
-        <v>0.007061812078999999</v>
+        <v>0.007062393704999999</v>
       </c>
       <c r="H12">
-        <v>0.009302365636200002</v>
+        <v>0.009303131799</v>
       </c>
     </row>
     <row r="13">
@@ -946,16 +946,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E14">
-        <v>14009</v>
+        <v>14005</v>
       </c>
       <c r="F14">
         <v>33942</v>
       </c>
       <c r="G14">
-        <v>0.004073999317</v>
+        <v>0.004072836065</v>
       </c>
       <c r="H14">
-        <v>0.0053665873326</v>
+        <v>0.005365055007000001</v>
       </c>
     </row>
     <row r="15">
@@ -972,16 +972,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E15">
-        <v>105960</v>
+        <v>105974</v>
       </c>
       <c r="F15">
         <v>243322</v>
       </c>
       <c r="G15">
-        <v>0.030814545479999993</v>
+        <v>0.030818616861999996</v>
       </c>
       <c r="H15">
-        <v>0.040591305144</v>
+        <v>0.0405966682836</v>
       </c>
     </row>
     <row r="16">
@@ -1024,16 +1024,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E17">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="F17">
         <v>993</v>
       </c>
       <c r="G17">
-        <v>0.0009294383479999999</v>
+        <v>0.0009303107869999998</v>
       </c>
       <c r="H17">
-        <v>0.0012243281544000002</v>
+        <v>0.0012254773986000002</v>
       </c>
     </row>
     <row r="18">
@@ -1076,16 +1076,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E19">
-        <v>46829</v>
+        <v>46828</v>
       </c>
       <c r="F19">
         <v>123063</v>
       </c>
       <c r="G19">
-        <v>0.013618481976999998</v>
+        <v>0.013618191164</v>
       </c>
       <c r="H19">
-        <v>0.017939318880600005</v>
+        <v>0.017938935799200004</v>
       </c>
     </row>
     <row r="20">
@@ -1102,16 +1102,16 @@
         <v>text/css</v>
       </c>
       <c r="E20">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F20">
         <v>1115</v>
       </c>
       <c r="G20">
-        <v>0.00033966958399999996</v>
+        <v>0.00033937877099999994</v>
       </c>
       <c r="H20">
-        <v>0.0004474390752000001</v>
+        <v>0.00044705599380000005</v>
       </c>
     </row>
     <row r="21">
@@ -1128,16 +1128,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E21">
-        <v>112095</v>
+        <v>112096</v>
       </c>
       <c r="F21">
         <v>319854</v>
       </c>
       <c r="G21">
-        <v>0.032598683234999995</v>
+        <v>0.032598974047999996</v>
       </c>
       <c r="H21">
-        <v>0.04294150953300001</v>
+        <v>0.042941892614400005</v>
       </c>
     </row>
     <row r="22">
@@ -1232,16 +1232,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E25">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F25">
         <v>581</v>
       </c>
       <c r="G25">
-        <v>0.00023875747299999996</v>
+        <v>0.00023846665999999997</v>
       </c>
       <c r="H25">
-        <v>0.00031450982940000005</v>
+        <v>0.000314126748</v>
       </c>
     </row>
     <row r="26">
@@ -1258,16 +1258,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E26">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F26">
         <v>330</v>
       </c>
       <c r="G26">
-        <v>0.00020996698599999995</v>
+        <v>0.00020967617299999996</v>
       </c>
       <c r="H26">
-        <v>0.00027658477079999997</v>
+        <v>0.0002762016894</v>
       </c>
     </row>
     <row r="27">
@@ -1310,16 +1310,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E28">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F28">
         <v>477</v>
       </c>
       <c r="G28">
-        <v>0.000228288205</v>
+        <v>0.00022799739199999997</v>
       </c>
       <c r="H28">
-        <v>0.00030071889900000004</v>
+        <v>0.00030033581760000006</v>
       </c>
     </row>
     <row r="29">
@@ -1336,16 +1336,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E29">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F29">
         <v>574</v>
       </c>
       <c r="G29">
-        <v>0.00024602779799999996</v>
+        <v>0.00024573698499999995</v>
       </c>
       <c r="H29">
-        <v>0.00032408686440000005</v>
+        <v>0.000323703783</v>
       </c>
     </row>
     <row r="30">
@@ -1362,16 +1362,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E30">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F30">
         <v>2610</v>
       </c>
       <c r="G30">
-        <v>0.00043825519099999997</v>
+        <v>0.00043796437799999995</v>
       </c>
       <c r="H30">
-        <v>0.0005773036698000001</v>
+        <v>0.0005769205884000001</v>
       </c>
     </row>
     <row r="31">
@@ -1388,16 +1388,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E31">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F31">
         <v>1646</v>
       </c>
       <c r="G31">
-        <v>0.00038096502999999997</v>
+        <v>0.00038154665599999995</v>
       </c>
       <c r="H31">
-        <v>0.000501836634</v>
+        <v>0.0005026027968000001</v>
       </c>
     </row>
     <row r="32">
@@ -1466,16 +1466,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E34">
-        <v>33638</v>
+        <v>33639</v>
       </c>
       <c r="F34">
         <v>33400</v>
       </c>
       <c r="G34">
-        <v>0.009782367694</v>
+        <v>0.009782658506999999</v>
       </c>
       <c r="H34">
-        <v>0.012886092133200001</v>
+        <v>0.012886475214600002</v>
       </c>
     </row>
     <row r="35">
@@ -1492,16 +1492,16 @@
         <v>application/font-woff2</v>
       </c>
       <c r="E35">
-        <v>28226</v>
+        <v>28227</v>
       </c>
       <c r="F35">
         <v>27996</v>
       </c>
       <c r="G35">
-        <v>0.008208487737999998</v>
+        <v>0.008208778550999999</v>
       </c>
       <c r="H35">
-        <v>0.0108128555964</v>
+        <v>0.010813238677800001</v>
       </c>
     </row>
     <row r="36">
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1h1</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1</v>
       </c>
       <c r="C38" t="str">
         <v>Script</v>
@@ -1570,16 +1570,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E38">
-        <v>163237</v>
+        <v>163217</v>
       </c>
       <c r="F38">
         <v>496793</v>
       </c>
       <c r="G38">
-        <v>0.047471441680999996</v>
+        <v>0.047465625420999996</v>
       </c>
       <c r="H38">
-        <v>0.06253305849179999</v>
+        <v>0.06252539686380001</v>
       </c>
     </row>
     <row r="39">
@@ -1596,16 +1596,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E39">
-        <v>88517</v>
+        <v>88508</v>
       </c>
       <c r="F39">
         <v>333797</v>
       </c>
       <c r="G39">
-        <v>0.025741894320999995</v>
+        <v>0.025739277004</v>
       </c>
       <c r="H39">
-        <v>0.0339092162838</v>
+        <v>0.033905768551200005</v>
       </c>
     </row>
     <row r="40">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140392999</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763142802428</v>
       </c>
       <c r="C40" t="str">
         <v>Image</v>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=552&amp;prev=60c2a352-60cd-b81f-5847-71487aaab9c0&amp;luid=2407300a-ccc2-b753-993b-1568ad7a880c&amp;rnd=60551</v>
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=488&amp;prev=9fd9a977-ab09-e665-0595-01e4cf18361a&amp;luid=33fa8391-79c1-1f02-d155-32e3cf1b1b8e&amp;rnd=18388</v>
       </c>
       <c r="C41" t="str">
         <v>Image</v>
@@ -1694,22 +1694,19 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C43" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="D43" t="str">
-        <v>application/json</v>
+        <v/>
       </c>
       <c r="E43">
-        <v>200</v>
-      </c>
-      <c r="F43">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.00005816259999999999</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.00007661628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1720,19 +1717,22 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C44" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>96</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.00005816259999999999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>0.00007661628</v>
       </c>
     </row>
     <row r="45">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="B45" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1h1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140392837&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=550637155.1763140394&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938466~115938469~116217636~116217638&amp;sid=1763140393&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1055</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763142802279&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=1149637775.1763142803&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105446120~115583767~115938466~115938469~116217636~116217638&amp;sid=1763142802&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1018</v>
       </c>
       <c r="C45" t="str">
         <v>Fetch</v>
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140394191&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763142803604&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
       </c>
       <c r="C46" t="str">
         <v>XHR</v>
@@ -1798,16 +1798,16 @@
         <v>text/html</v>
       </c>
       <c r="E47">
-        <v>11397</v>
+        <v>11393</v>
       </c>
       <c r="F47">
         <v>49489</v>
       </c>
       <c r="G47">
-        <v>0.0033143957609999995</v>
+        <v>0.0033132325089999994</v>
       </c>
       <c r="H47">
-        <v>0.0043659787158</v>
+        <v>0.0043644463902</v>
       </c>
     </row>
     <row r="48">
@@ -1824,16 +1824,16 @@
         <v>text/css</v>
       </c>
       <c r="E48">
-        <v>38592</v>
+        <v>38591</v>
       </c>
       <c r="F48">
         <v>157279</v>
       </c>
       <c r="G48">
-        <v>0.011223055296</v>
+        <v>0.011222764482999999</v>
       </c>
       <c r="H48">
-        <v>0.014783877388800002</v>
+        <v>0.014783494307400002</v>
       </c>
     </row>
     <row r="49">
@@ -1850,16 +1850,16 @@
         <v>text/css</v>
       </c>
       <c r="E49">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="F49">
         <v>5418</v>
       </c>
       <c r="G49">
-        <v>0.00031582291799999996</v>
+        <v>0.000316404544</v>
       </c>
       <c r="H49">
-        <v>0.00041602640040000005</v>
+        <v>0.0004167925632</v>
       </c>
     </row>
     <row r="50">
@@ -1876,16 +1876,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E50">
-        <v>6941</v>
+        <v>6934</v>
       </c>
       <c r="F50">
         <v>16816</v>
       </c>
       <c r="G50">
-        <v>0.0020185330329999997</v>
+        <v>0.0020164973419999994</v>
       </c>
       <c r="H50">
-        <v>0.0026589679974000006</v>
+        <v>0.0026562864276000004</v>
       </c>
     </row>
     <row r="51">
@@ -1902,16 +1902,16 @@
         <v>image/webp</v>
       </c>
       <c r="E51">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="F51">
         <v>4484</v>
       </c>
       <c r="G51">
-        <v>0.0014639526419999997</v>
+        <v>0.0014642434549999998</v>
       </c>
       <c r="H51">
-        <v>0.0019284317676000003</v>
+        <v>0.0019288148490000003</v>
       </c>
     </row>
     <row r="52">
@@ -1928,16 +1928,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E52">
-        <v>112830</v>
+        <v>112828</v>
       </c>
       <c r="F52">
         <v>112238</v>
       </c>
       <c r="G52">
-        <v>0.03281243078999999</v>
+        <v>0.032811849164</v>
       </c>
       <c r="H52">
-        <v>0.043223074362</v>
+        <v>0.0432223081992</v>
       </c>
     </row>
     <row r="53">
@@ -1954,16 +1954,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E53">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F53">
         <v>612</v>
       </c>
       <c r="G53">
-        <v>0.00023817584699999998</v>
+        <v>0.00023846665999999997</v>
       </c>
       <c r="H53">
-        <v>0.00031374366660000003</v>
+        <v>0.000314126748</v>
       </c>
     </row>
     <row r="54">
@@ -1980,16 +1980,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E54">
-        <v>66877</v>
+        <v>66879</v>
       </c>
       <c r="F54">
         <v>66344</v>
       </c>
       <c r="G54">
-        <v>0.019448701000999997</v>
+        <v>0.019449282626999995</v>
       </c>
       <c r="H54">
-        <v>0.0256193347878</v>
+        <v>0.0256201009506</v>
       </c>
     </row>
     <row r="55">
@@ -2006,16 +2006,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E55">
-        <v>77917</v>
+        <v>77918</v>
       </c>
       <c r="F55">
         <v>77372</v>
       </c>
       <c r="G55">
-        <v>0.022659276520999996</v>
+        <v>0.022659567333999996</v>
       </c>
       <c r="H55">
-        <v>0.029848553443800007</v>
+        <v>0.0298489365252</v>
       </c>
     </row>
     <row r="56">
@@ -2032,16 +2032,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E56">
-        <v>72516</v>
+        <v>72519</v>
       </c>
       <c r="F56">
         <v>71982</v>
       </c>
       <c r="G56">
-        <v>0.021088595507999998</v>
+        <v>0.021089467946999996</v>
       </c>
       <c r="H56">
-        <v>0.0277795308024</v>
+        <v>0.027780680046600007</v>
       </c>
     </row>
     <row r="57">
@@ -2058,16 +2058,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E57">
-        <v>24285</v>
+        <v>24286</v>
       </c>
       <c r="F57">
         <v>23748</v>
       </c>
       <c r="G57">
-        <v>0.007062393704999999</v>
+        <v>0.007062684517999999</v>
       </c>
       <c r="H57">
-        <v>0.009303131799</v>
+        <v>0.009303514880400002</v>
       </c>
     </row>
     <row r="58">
@@ -2084,16 +2084,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E58">
-        <v>29648</v>
+        <v>29649</v>
       </c>
       <c r="F58">
         <v>83615</v>
       </c>
       <c r="G58">
-        <v>0.008622023823999998</v>
+        <v>0.008622314636999999</v>
       </c>
       <c r="H58">
-        <v>0.011357597347200002</v>
+        <v>0.011357980428600001</v>
       </c>
     </row>
     <row r="59">
@@ -2110,16 +2110,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E59">
-        <v>14008</v>
+        <v>14009</v>
       </c>
       <c r="F59">
         <v>33942</v>
       </c>
       <c r="G59">
-        <v>0.004073708503999999</v>
+        <v>0.004073999317</v>
       </c>
       <c r="H59">
-        <v>0.0053662042512</v>
+        <v>0.0053665873326</v>
       </c>
     </row>
     <row r="60">
@@ -2136,16 +2136,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E60">
-        <v>105978</v>
+        <v>105973</v>
       </c>
       <c r="F60">
         <v>243322</v>
       </c>
       <c r="G60">
-        <v>0.030819780113999995</v>
+        <v>0.030818326048999995</v>
       </c>
       <c r="H60">
-        <v>0.040598200609200004</v>
+        <v>0.04059628520220001</v>
       </c>
     </row>
     <row r="61">
@@ -2162,16 +2162,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E61">
-        <v>37145</v>
+        <v>37153</v>
       </c>
       <c r="F61">
         <v>100455</v>
       </c>
       <c r="G61">
-        <v>0.010802248884999999</v>
+        <v>0.010804575389</v>
       </c>
       <c r="H61">
-        <v>0.014229558603</v>
+        <v>0.014232623254200003</v>
       </c>
     </row>
     <row r="62">
@@ -2188,16 +2188,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E62">
-        <v>3197</v>
+        <v>3581</v>
       </c>
       <c r="F62">
         <v>993</v>
       </c>
       <c r="G62">
-        <v>0.0009297291609999998</v>
+        <v>0.0010414013529999998</v>
       </c>
       <c r="H62">
-        <v>0.0012247112358</v>
+        <v>0.0013718144934</v>
       </c>
     </row>
     <row r="63">
@@ -2214,16 +2214,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E63">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="F63">
         <v>5988</v>
       </c>
       <c r="G63">
-        <v>0.0007366293289999998</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H63">
-        <v>0.0009703451862</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="64">
@@ -2240,16 +2240,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E64">
-        <v>46829</v>
+        <v>46830</v>
       </c>
       <c r="F64">
         <v>123063</v>
       </c>
       <c r="G64">
-        <v>0.013618481976999998</v>
+        <v>0.013618772789999999</v>
       </c>
       <c r="H64">
-        <v>0.017939318880600005</v>
+        <v>0.017939701962000003</v>
       </c>
     </row>
     <row r="65">
@@ -2266,16 +2266,16 @@
         <v>text/css</v>
       </c>
       <c r="E65">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F65">
         <v>1115</v>
       </c>
       <c r="G65">
-        <v>0.00033937877099999994</v>
+        <v>0.000339960397</v>
       </c>
       <c r="H65">
-        <v>0.00044705599380000005</v>
+        <v>0.00044782215660000007</v>
       </c>
     </row>
     <row r="66">
@@ -2292,16 +2292,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E66">
-        <v>113791</v>
+        <v>112111</v>
       </c>
       <c r="F66">
-        <v>324278</v>
+        <v>319871</v>
       </c>
       <c r="G66">
-        <v>0.033091902082999995</v>
+        <v>0.032603336243</v>
       </c>
       <c r="H66">
-        <v>0.043591215587400006</v>
+        <v>0.042947638835399995</v>
       </c>
     </row>
     <row r="67">
@@ -2318,16 +2318,16 @@
         <v>image/webp</v>
       </c>
       <c r="E67">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="F67">
         <v>4484</v>
       </c>
       <c r="G67">
-        <v>0.0014639526419999997</v>
+        <v>0.0014642434549999998</v>
       </c>
       <c r="H67">
-        <v>0.0019284317676000003</v>
+        <v>0.0019288148490000003</v>
       </c>
     </row>
     <row r="68">
@@ -2344,16 +2344,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E68">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F68">
         <v>510</v>
       </c>
       <c r="G68">
-        <v>0.00021520161999999998</v>
+        <v>0.00021549243299999997</v>
       </c>
       <c r="H68">
-        <v>0.00028348023600000005</v>
+        <v>0.00028386331740000003</v>
       </c>
     </row>
     <row r="69">
@@ -2396,16 +2396,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E70">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F70">
         <v>581</v>
       </c>
       <c r="G70">
-        <v>0.00023846665999999997</v>
+        <v>0.00023875747299999996</v>
       </c>
       <c r="H70">
-        <v>0.000314126748</v>
+        <v>0.00031450982940000005</v>
       </c>
     </row>
     <row r="71">
@@ -2422,16 +2422,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E71">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F71">
         <v>330</v>
       </c>
       <c r="G71">
-        <v>0.00020967617299999996</v>
+        <v>0.00020996698599999995</v>
       </c>
       <c r="H71">
-        <v>0.0002762016894</v>
+        <v>0.00027658477079999997</v>
       </c>
     </row>
     <row r="72">
@@ -2448,16 +2448,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E72">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F72">
         <v>581</v>
       </c>
       <c r="G72">
-        <v>0.00023788503399999996</v>
+        <v>0.00023817584699999998</v>
       </c>
       <c r="H72">
-        <v>0.00031336058520000005</v>
+        <v>0.00031374366660000003</v>
       </c>
     </row>
     <row r="73">
@@ -2474,16 +2474,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F73">
         <v>477</v>
       </c>
       <c r="G73">
-        <v>0.00022799739199999997</v>
+        <v>0.000228288205</v>
       </c>
       <c r="H73">
-        <v>0.00030033581760000006</v>
+        <v>0.00030071889900000004</v>
       </c>
     </row>
     <row r="74">
@@ -2500,16 +2500,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E74">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F74">
         <v>574</v>
       </c>
       <c r="G74">
-        <v>0.00024573698499999995</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H74">
-        <v>0.000323703783</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="75">
@@ -2526,16 +2526,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E75">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F75">
         <v>2610</v>
       </c>
       <c r="G75">
-        <v>0.00043796437799999995</v>
+        <v>0.00043825519099999997</v>
       </c>
       <c r="H75">
-        <v>0.0005769205884000001</v>
+        <v>0.0005773036698000001</v>
       </c>
     </row>
     <row r="76">
@@ -2552,16 +2552,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E76">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F76">
         <v>1646</v>
       </c>
       <c r="G76">
-        <v>0.00038067421699999995</v>
+        <v>0.00038096502999999997</v>
       </c>
       <c r="H76">
-        <v>0.0005014535526000001</v>
+        <v>0.000501836634</v>
       </c>
     </row>
     <row r="77">
@@ -2578,16 +2578,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E77">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F77">
         <v>589</v>
       </c>
       <c r="G77">
-        <v>0.00023904828599999995</v>
+        <v>0.00023933909899999996</v>
       </c>
       <c r="H77">
-        <v>0.0003148929108000001</v>
+        <v>0.00031527599220000006</v>
       </c>
     </row>
     <row r="78">
@@ -2604,16 +2604,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E78">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F78">
         <v>884</v>
       </c>
       <c r="G78">
-        <v>0.0002826702359999999</v>
+        <v>0.00028296104899999994</v>
       </c>
       <c r="H78">
-        <v>0.0003723551208</v>
+        <v>0.0003727382022000001</v>
       </c>
     </row>
     <row r="79">
@@ -2621,25 +2621,25 @@
         <v>2</v>
       </c>
       <c r="B79" t="str">
-        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
+        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
       </c>
       <c r="C79" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D79" t="str">
-        <v>application/font-woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E79">
-        <v>33639</v>
+        <v>30657</v>
       </c>
       <c r="F79">
-        <v>33400</v>
+        <v>195553</v>
       </c>
       <c r="G79">
-        <v>0.009782658506999999</v>
+        <v>0.008915454140999998</v>
       </c>
       <c r="H79">
-        <v>0.012886475214600002</v>
+        <v>0.011744126479800002</v>
       </c>
     </row>
     <row r="80">
@@ -2647,25 +2647,25 @@
         <v>2</v>
       </c>
       <c r="B80" t="str">
-        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1</v>
       </c>
       <c r="C80" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D80" t="str">
-        <v>application/font-woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E80">
-        <v>28227</v>
+        <v>163218</v>
       </c>
       <c r="F80">
-        <v>27996</v>
+        <v>496793</v>
       </c>
       <c r="G80">
-        <v>0.008208778550999999</v>
+        <v>0.04746591623399999</v>
       </c>
       <c r="H80">
-        <v>0.010813238677800001</v>
+        <v>0.06252577994520002</v>
       </c>
     </row>
     <row r="81">
@@ -2673,25 +2673,25 @@
         <v>2</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
       </c>
       <c r="C81" t="str">
         <v>Script</v>
       </c>
       <c r="D81" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E81">
-        <v>10432</v>
+        <v>88508</v>
       </c>
       <c r="F81">
-        <v>30432</v>
+        <v>333797</v>
       </c>
       <c r="G81">
-        <v>0.0030337612159999994</v>
+        <v>0.025739277004</v>
       </c>
       <c r="H81">
-        <v>0.0039963051648</v>
+        <v>0.033905768551200005</v>
       </c>
     </row>
     <row r="82">
@@ -2699,25 +2699,25 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
+        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
       </c>
       <c r="C82" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D82" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E82">
-        <v>30656</v>
+        <v>33640</v>
       </c>
       <c r="F82">
-        <v>195553</v>
+        <v>33400</v>
       </c>
       <c r="G82">
-        <v>0.008915163327999999</v>
+        <v>0.00978294932</v>
       </c>
       <c r="H82">
-        <v>0.011743743398400001</v>
+        <v>0.012886858296000002</v>
       </c>
     </row>
     <row r="83">
@@ -2725,25 +2725,25 @@
         <v>2</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1</v>
+        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
       </c>
       <c r="C83" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D83" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E83">
-        <v>163217</v>
+        <v>28228</v>
       </c>
       <c r="F83">
-        <v>496793</v>
+        <v>27996</v>
       </c>
       <c r="G83">
-        <v>0.047465625420999996</v>
+        <v>0.008209069364</v>
       </c>
       <c r="H83">
-        <v>0.06252539686380001</v>
+        <v>0.010813621759200002</v>
       </c>
     </row>
     <row r="84">
@@ -2751,25 +2751,25 @@
         <v>2</v>
       </c>
       <c r="B84" t="str">
-        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C84" t="str">
         <v>Script</v>
       </c>
       <c r="D84" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E84">
-        <v>88517</v>
+        <v>10432</v>
       </c>
       <c r="F84">
-        <v>333797</v>
+        <v>30432</v>
       </c>
       <c r="G84">
-        <v>0.025741894320999995</v>
+        <v>0.0030337612159999994</v>
       </c>
       <c r="H84">
-        <v>0.0339092162838</v>
+        <v>0.0039963051648</v>
       </c>
     </row>
     <row r="85">
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140406140</v>
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=509&amp;prev=994b530e-7508-b231-aa20-47a974831e3a&amp;luid=f36cfc3d-a37d-63da-fb80-ae005c0a5e16&amp;rnd=24640</v>
       </c>
       <c r="C85" t="str">
         <v>Image</v>
@@ -2786,16 +2786,16 @@
         <v>image/gif</v>
       </c>
       <c r="E85">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
-        <v>0.00005961666499999999</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H85">
-        <v>0.000078531687</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="86">
@@ -2803,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=503&amp;prev=d1bc602b-b8a9-0934-c51d-61eb3e5b328e&amp;luid=f9bf4704-9f97-ade7-4e2e-3dfaa1b721a2&amp;rnd=77323</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763142815737</v>
       </c>
       <c r="C86" t="str">
         <v>Image</v>
@@ -2812,16 +2812,16 @@
         <v>image/gif</v>
       </c>
       <c r="E86">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F86">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86">
-        <v>0.00006107072999999999</v>
+        <v>0.000059907477999999995</v>
       </c>
       <c r="H86">
-        <v>0.00008044709400000001</v>
+        <v>0.00007891476840000001</v>
       </c>
     </row>
     <row r="87">
@@ -2829,22 +2829,25 @@
         <v>2</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.googletagmanager.com/a?v=3&amp;t=l&amp;pid=1241648995&amp;rv=5bc1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115673441~115938465~115938469~116217636~116217638&amp;u=AAAAAIAC&amp;ut=AAAI&amp;h=Ag&amp;gtm=45He5bc1v71800422za200zd71800422&amp;ccid=1800422&amp;cid=GTM-NQN2N5&amp;l=L292.S3.Y1.B5.E192.I398.TC3.HTC1~gtm.init_consent.S0.V0.E5.TS5cvt.TI23.TE1~gtm.init.E3.TS5googtag.TI16.TE0.TS5html.TI3.TE0~gtm.js.S0.V0.E0~gtm.dom.S0.V0.E0~gtm.load.S0.V0.E0~SS114.10000002384186</v>
+        <v>https://www.baerum.kommune.no/favicon.ico</v>
       </c>
       <c r="C87" t="str">
-        <v>Image</v>
+        <v>Other</v>
       </c>
       <c r="D87" t="str">
-        <v>text/html</v>
+        <v>image/x-icon</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>2069</v>
+      </c>
+      <c r="F87">
+        <v>15086</v>
       </c>
       <c r="G87">
-        <v>0.0000031989429999999993</v>
+        <v>0.0006016920969999999</v>
       </c>
       <c r="H87">
-        <v>0.0000042138954</v>
+        <v>0.0007925954165999999</v>
       </c>
     </row>
     <row r="88">
@@ -2852,25 +2855,22 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.baerum.kommune.no/favicon.ico</v>
+        <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C88" t="str">
-        <v>Other</v>
+        <v>Preflight</v>
       </c>
       <c r="D88" t="str">
-        <v>image/x-icon</v>
+        <v/>
       </c>
       <c r="E88">
-        <v>2068</v>
-      </c>
-      <c r="F88">
-        <v>15086</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0.000601401284</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>0.0007922123352000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2881,19 +2881,22 @@
         <v>https://dc.services.visualstudio.com/v2/track</v>
       </c>
       <c r="C89" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="D89" t="str">
-        <v/>
+        <v>application/json</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="F89">
+        <v>96</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.00005845341299999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>0.0000769993614</v>
       </c>
     </row>
     <row r="90">
@@ -2901,25 +2904,22 @@
         <v>2</v>
       </c>
       <c r="B90" t="str">
-        <v>https://dc.services.visualstudio.com/v2/track</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763142815460&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=653514092.1763142816&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~115583767~115616985~115938466~115938468~116217636~116217638~116474636&amp;sid=1763142815&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1014</v>
       </c>
       <c r="C90" t="str">
-        <v>XHR</v>
+        <v>Fetch</v>
       </c>
       <c r="D90" t="str">
-        <v>application/json</v>
+        <v>text/plain</v>
       </c>
       <c r="E90">
-        <v>200</v>
-      </c>
-      <c r="F90">
-        <v>96</v>
+        <v>554</v>
       </c>
       <c r="G90">
-        <v>0.00005816259999999999</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H90">
-        <v>0.00007661628</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="91">
@@ -2927,48 +2927,51 @@
         <v>2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140405995&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=372727677.1763140407&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140406&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1007</v>
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763142816795&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
       </c>
       <c r="C91" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D91" t="str">
-        <v>text/plain</v>
+        <v>application/json</v>
       </c>
       <c r="E91">
-        <v>553</v>
+        <v>293</v>
+      </c>
+      <c r="F91">
+        <v>47</v>
       </c>
       <c r="G91">
-        <v>0.00016081958899999998</v>
+        <v>0.00008520820899999998</v>
       </c>
       <c r="H91">
-        <v>0.00021184401420000005</v>
+        <v>0.0001122428502</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140407322&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
+        <v>https://www.baerum.kommune.no/</v>
       </c>
       <c r="C92" t="str">
-        <v>XHR</v>
+        <v>Document</v>
       </c>
       <c r="D92" t="str">
-        <v>application/json</v>
+        <v>text/html</v>
       </c>
       <c r="E92">
-        <v>293</v>
+        <v>11395</v>
       </c>
       <c r="F92">
-        <v>47</v>
+        <v>49489</v>
       </c>
       <c r="G92">
-        <v>0.00008520820899999998</v>
+        <v>0.0033138141349999995</v>
       </c>
       <c r="H92">
-        <v>0.0001122428502</v>
+        <v>0.004365212553</v>
       </c>
     </row>
     <row r="93">
@@ -2976,25 +2979,25 @@
         <v>3</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.baerum.kommune.no/</v>
+        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
       </c>
       <c r="C93" t="str">
-        <v>Document</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D93" t="str">
-        <v>text/html</v>
+        <v>text/css</v>
       </c>
       <c r="E93">
-        <v>11452</v>
+        <v>38588</v>
       </c>
       <c r="F93">
-        <v>49489</v>
+        <v>157279</v>
       </c>
       <c r="G93">
-        <v>0.0033303904759999993</v>
+        <v>0.011221892043999999</v>
       </c>
       <c r="H93">
-        <v>0.0043870481928</v>
+        <v>0.0147823450632</v>
       </c>
     </row>
     <row r="94">
@@ -3002,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/global?v=R8KqY0xO7XPsZdOMLRqN5F6gXNqtnowy8c6gp-eUj2Q1</v>
+        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
       </c>
       <c r="C94" t="str">
         <v>Stylesheet</v>
@@ -3011,16 +3014,16 @@
         <v>text/css</v>
       </c>
       <c r="E94">
-        <v>38586</v>
+        <v>1088</v>
       </c>
       <c r="F94">
-        <v>157279</v>
+        <v>5418</v>
       </c>
       <c r="G94">
-        <v>0.011221310418</v>
+        <v>0.000316404544</v>
       </c>
       <c r="H94">
-        <v>0.0147815789004</v>
+        <v>0.0004167925632</v>
       </c>
     </row>
     <row r="95">
@@ -3028,25 +3031,25 @@
         <v>3</v>
       </c>
       <c r="B95" t="str">
-        <v>https://fonts.googleapis.com/css?family=Montserrat:400,600,700</v>
+        <v>https://use.typekit.net/sgo8muj.js</v>
       </c>
       <c r="C95" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D95" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E95">
-        <v>1086</v>
+        <v>6942</v>
       </c>
       <c r="F95">
-        <v>5418</v>
+        <v>16816</v>
       </c>
       <c r="G95">
-        <v>0.00031582291799999996</v>
+        <v>0.0020188238459999995</v>
       </c>
       <c r="H95">
-        <v>0.00041602640040000005</v>
+        <v>0.0026593510788</v>
       </c>
     </row>
     <row r="96">
@@ -3054,25 +3057,25 @@
         <v>3</v>
       </c>
       <c r="B96" t="str">
-        <v>https://use.typekit.net/sgo8muj.js</v>
+        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
       </c>
       <c r="C96" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D96" t="str">
-        <v>text/javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E96">
-        <v>6931</v>
+        <v>5041</v>
       </c>
       <c r="F96">
-        <v>16816</v>
+        <v>4484</v>
       </c>
       <c r="G96">
-        <v>0.0020156249029999996</v>
+        <v>0.0014659883329999999</v>
       </c>
       <c r="H96">
-        <v>0.0026551371834</v>
+        <v>0.0019311133373999998</v>
       </c>
     </row>
     <row r="97">
@@ -3080,25 +3083,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-dark.png</v>
+        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C97" t="str">
         <v>Image</v>
       </c>
       <c r="D97" t="str">
-        <v>image/webp</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E97">
-        <v>5034</v>
+        <v>112819</v>
       </c>
       <c r="F97">
-        <v>4484</v>
+        <v>112238</v>
       </c>
       <c r="G97">
-        <v>0.0014639526419999997</v>
+        <v>0.032809231847</v>
       </c>
       <c r="H97">
-        <v>0.0019284317676000003</v>
+        <v>0.043218860466600006</v>
       </c>
     </row>
     <row r="98">
@@ -3106,25 +3109,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.baerum.kommune.no/contentassets/a398ce7ec15f47fdacc71c2d256581ef/host--foto-anett-dahli.jpg?width=850&amp;height=425&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
       </c>
       <c r="C98" t="str">
         <v>Image</v>
       </c>
       <c r="D98" t="str">
-        <v>image/jpeg</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E98">
-        <v>112835</v>
+        <v>820</v>
       </c>
       <c r="F98">
-        <v>112238</v>
+        <v>612</v>
       </c>
       <c r="G98">
-        <v>0.032813884854999996</v>
+        <v>0.00023846665999999997</v>
       </c>
       <c r="H98">
-        <v>0.043224989769</v>
+        <v>0.000314126748</v>
       </c>
     </row>
     <row r="99">
@@ -3132,25 +3135,25 @@
         <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.baerum.kommune.no/UI/magnifyer.svg</v>
+        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C99" t="str">
         <v>Image</v>
       </c>
       <c r="D99" t="str">
-        <v>image/svg+xml</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E99">
-        <v>819</v>
+        <v>66878</v>
       </c>
       <c r="F99">
-        <v>612</v>
+        <v>66344</v>
       </c>
       <c r="G99">
-        <v>0.00023817584699999998</v>
+        <v>0.019448991813999998</v>
       </c>
       <c r="H99">
-        <v>0.00031374366660000003</v>
+        <v>0.0256197178692</v>
       </c>
     </row>
     <row r="100">
@@ -3158,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/a-hvaskjer/bilder/img_1049.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C100" t="str">
         <v>Image</v>
@@ -3167,16 +3170,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E100">
-        <v>66884</v>
+        <v>77911</v>
       </c>
       <c r="F100">
-        <v>66344</v>
+        <v>77372</v>
       </c>
       <c r="G100">
-        <v>0.019450736691999995</v>
+        <v>0.022657531643</v>
       </c>
       <c r="H100">
-        <v>0.025622016357600003</v>
+        <v>0.029846254955400008</v>
       </c>
     </row>
     <row r="101">
@@ -3184,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/arealkartlegging/e16.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
       </c>
       <c r="C101" t="str">
         <v>Image</v>
@@ -3193,16 +3196,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>77908</v>
+        <v>72523</v>
       </c>
       <c r="F101">
-        <v>77372</v>
+        <v>71982</v>
       </c>
       <c r="G101">
-        <v>0.022656659204</v>
+        <v>0.021090631198999996</v>
       </c>
       <c r="H101">
-        <v>0.029845105711200005</v>
+        <v>0.027782212372200004</v>
       </c>
     </row>
     <row r="102">
@@ -3210,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/klimaklok-nett/avkapp-fra-nadderud/dsc_0424.jpg?width=800&amp;height=450&amp;quality=70&amp;mode=crop</v>
+        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
       </c>
       <c r="C102" t="str">
         <v>Image</v>
@@ -3219,16 +3222,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>72516</v>
+        <v>24285</v>
       </c>
       <c r="F102">
-        <v>71982</v>
+        <v>23748</v>
       </c>
       <c r="G102">
-        <v>0.021088595507999998</v>
+        <v>0.007062393704999999</v>
       </c>
       <c r="H102">
-        <v>0.0277795308024</v>
+        <v>0.009303131799</v>
       </c>
     </row>
     <row r="103">
@@ -3236,25 +3239,25 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.baerum.kommune.no/globalassets/baringen/2025-1/gode-liv/hjertesoner/dsc_9475-2.jpg?width=424&amp;mode=pad&amp;anchor=middlecenter&amp;scale=down&amp;factor=2</v>
+        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
       </c>
       <c r="C103" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D103" t="str">
-        <v>image/jpeg</v>
+        <v>application/javascript</v>
       </c>
       <c r="E103">
-        <v>24280</v>
+        <v>29649</v>
       </c>
       <c r="F103">
-        <v>23748</v>
+        <v>83615</v>
       </c>
       <c r="G103">
-        <v>0.007060939639999999</v>
+        <v>0.008622314636999999</v>
       </c>
       <c r="H103">
-        <v>0.009301216392</v>
+        <v>0.011357980428600001</v>
       </c>
     </row>
     <row r="104">
@@ -3262,25 +3265,25 @@
         <v>3</v>
       </c>
       <c r="B104" t="str">
-        <v>https://ajax.aspnetcdn.com/ajax/jQuery/jquery-2.1.0.min.js</v>
+        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
       </c>
       <c r="C104" t="str">
         <v>Script</v>
       </c>
       <c r="D104" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E104">
-        <v>29648</v>
+        <v>14009</v>
       </c>
       <c r="F104">
-        <v>83615</v>
+        <v>33942</v>
       </c>
       <c r="G104">
-        <v>0.008622023823999998</v>
+        <v>0.004073999317</v>
       </c>
       <c r="H104">
-        <v>0.011357597347200002</v>
+        <v>0.0053665873326</v>
       </c>
     </row>
     <row r="105">
@@ -3288,25 +3291,25 @@
         <v>3</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.baerum.kommune.no/Scripts/jquery.ui/1.11.4.custom.min.js</v>
+        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
       </c>
       <c r="C105" t="str">
         <v>Script</v>
       </c>
       <c r="D105" t="str">
-        <v>text/javascript</v>
+        <v>application/javascript</v>
       </c>
       <c r="E105">
-        <v>14005</v>
+        <v>105968</v>
       </c>
       <c r="F105">
-        <v>33942</v>
+        <v>243322</v>
       </c>
       <c r="G105">
-        <v>0.004072836065</v>
+        <v>0.030816871983999995</v>
       </c>
       <c r="H105">
-        <v>0.005365055007000001</v>
+        <v>0.04059436979520001</v>
       </c>
     </row>
     <row r="106">
@@ -3314,7 +3317,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/libs?v=64HgPCw3jftC774wcEcTZwBZGESTC7F_sAc5kJf0wqQ1</v>
+        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
       </c>
       <c r="C106" t="str">
         <v>Script</v>
@@ -3323,16 +3326,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E106">
-        <v>105964</v>
+        <v>37150</v>
       </c>
       <c r="F106">
-        <v>243322</v>
+        <v>100455</v>
       </c>
       <c r="G106">
-        <v>0.030815708731999996</v>
+        <v>0.010803702949999997</v>
       </c>
       <c r="H106">
-        <v>0.040592837469600004</v>
+        <v>0.014231474010000003</v>
       </c>
     </row>
     <row r="107">
@@ -3340,25 +3343,25 @@
         <v>3</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.baerum.kommune.no/bundles/js/global?v=SMWcoUQdP589T4UyhHrAPk5q77EUIVz0FVnNEJW35VU1</v>
+        <v>https://www.youtube.com/iframe_api</v>
       </c>
       <c r="C107" t="str">
         <v>Script</v>
       </c>
       <c r="D107" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E107">
-        <v>37151</v>
+        <v>3200</v>
       </c>
       <c r="F107">
-        <v>100455</v>
+        <v>993</v>
       </c>
       <c r="G107">
-        <v>0.010803993763</v>
+        <v>0.0009306015999999999</v>
       </c>
       <c r="H107">
-        <v>0.0142318570914</v>
+        <v>0.00122586048</v>
       </c>
     </row>
     <row r="108">
@@ -3366,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.youtube.com/iframe_api</v>
+        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
       </c>
       <c r="C108" t="str">
         <v>Script</v>
       </c>
       <c r="D108" t="str">
-        <v>text/javascript</v>
+        <v>application/x-javascript</v>
       </c>
       <c r="E108">
-        <v>3198</v>
+        <v>2534</v>
       </c>
       <c r="F108">
-        <v>993</v>
+        <v>5988</v>
       </c>
       <c r="G108">
-        <v>0.0009300199739999998</v>
+        <v>0.0007369201419999998</v>
       </c>
       <c r="H108">
-        <v>0.0012250943172000001</v>
+        <v>0.0009707282676</v>
       </c>
     </row>
     <row r="109">
@@ -3392,25 +3395,25 @@
         <v>3</v>
       </c>
       <c r="B109" t="str">
-        <v>https://dl.episerver.net/13.6.1/epi-util/find.js</v>
+        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
       </c>
       <c r="C109" t="str">
         <v>Script</v>
       </c>
       <c r="D109" t="str">
-        <v>application/x-javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E109">
-        <v>2533</v>
+        <v>46830</v>
       </c>
       <c r="F109">
-        <v>5988</v>
+        <v>123063</v>
       </c>
       <c r="G109">
-        <v>0.0007366293289999998</v>
+        <v>0.013618772789999999</v>
       </c>
       <c r="H109">
-        <v>0.0009703451862</v>
+        <v>0.017939701962000003</v>
       </c>
     </row>
     <row r="110">
@@ -3418,25 +3421,25 @@
         <v>3</v>
       </c>
       <c r="B110" t="str">
-        <v>https://az416426.vo.msecnd.net/scripts/b/ai.2.min.js</v>
+        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
       </c>
       <c r="C110" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D110" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E110">
-        <v>46830</v>
+        <v>1169</v>
       </c>
       <c r="F110">
-        <v>123063</v>
+        <v>1115</v>
       </c>
       <c r="G110">
-        <v>0.013618772789999999</v>
+        <v>0.000339960397</v>
       </c>
       <c r="H110">
-        <v>0.017939701962000003</v>
+        <v>0.00044782215660000007</v>
       </c>
     </row>
     <row r="111">
@@ -3444,25 +3447,25 @@
         <v>3</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.baerum.kommune.no/bundles/css/print?v=B2BFC_EKlnBFSZVrdCRIlLANfzzl8I0-X2peEzPnjhc1</v>
+        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
       </c>
       <c r="C111" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D111" t="str">
-        <v>text/css</v>
+        <v>application/javascript</v>
       </c>
       <c r="E111">
-        <v>1167</v>
+        <v>112098</v>
       </c>
       <c r="F111">
-        <v>1115</v>
+        <v>319854</v>
       </c>
       <c r="G111">
-        <v>0.00033937877099999994</v>
+        <v>0.03259955567399999</v>
       </c>
       <c r="H111">
-        <v>0.00044705599380000005</v>
+        <v>0.04294265877720001</v>
       </c>
     </row>
     <row r="112">
@@ -3470,25 +3473,25 @@
         <v>3</v>
       </c>
       <c r="B112" t="str">
-        <v>https://www.googletagmanager.com/gtm.js?id=GTM-NQN2N5</v>
+        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
       </c>
       <c r="C112" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D112" t="str">
-        <v>application/javascript</v>
+        <v>image/webp</v>
       </c>
       <c r="E112">
-        <v>112095</v>
+        <v>5035</v>
       </c>
       <c r="F112">
-        <v>319854</v>
+        <v>4484</v>
       </c>
       <c r="G112">
-        <v>0.032598683234999995</v>
+        <v>0.0014642434549999998</v>
       </c>
       <c r="H112">
-        <v>0.04294150953300001</v>
+        <v>0.0019288148490000003</v>
       </c>
     </row>
     <row r="113">
@@ -3496,25 +3499,25 @@
         <v>3</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.baerum.kommune.no/UI/logo-light.png</v>
+        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
       </c>
       <c r="C113" t="str">
         <v>Image</v>
       </c>
       <c r="D113" t="str">
-        <v>image/webp</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E113">
-        <v>5034</v>
+        <v>741</v>
       </c>
       <c r="F113">
-        <v>4484</v>
+        <v>510</v>
       </c>
       <c r="G113">
-        <v>0.0014639526419999997</v>
+        <v>0.00021549243299999997</v>
       </c>
       <c r="H113">
-        <v>0.0019284317676000003</v>
+        <v>0.00028386331740000003</v>
       </c>
     </row>
     <row r="114">
@@ -3522,25 +3525,25 @@
         <v>3</v>
       </c>
       <c r="B114" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-menu.svg</v>
+        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
       </c>
       <c r="C114" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D114" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E114">
-        <v>740</v>
+        <v>35540</v>
       </c>
       <c r="F114">
-        <v>510</v>
+        <v>35508</v>
       </c>
       <c r="G114">
-        <v>0.00021520161999999998</v>
+        <v>0.010335494019999999</v>
       </c>
       <c r="H114">
-        <v>0.00028348023600000005</v>
+        <v>0.013614712956</v>
       </c>
     </row>
     <row r="115">
@@ -3548,25 +3551,25 @@
         <v>3</v>
       </c>
       <c r="B115" t="str">
-        <v>https://fonts.gstatic.com/s/montserrat/v31/JTUSjIg1_i6t8kCHKm459WlhyyTh89Y.woff2</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
       </c>
       <c r="C115" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D115" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E115">
-        <v>35540</v>
+        <v>821</v>
       </c>
       <c r="F115">
-        <v>35508</v>
+        <v>581</v>
       </c>
       <c r="G115">
-        <v>0.010335494019999999</v>
+        <v>0.00023875747299999996</v>
       </c>
       <c r="H115">
-        <v>0.013614712956</v>
+        <v>0.00031450982940000005</v>
       </c>
     </row>
     <row r="116">
@@ -3574,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-petrolium-dark.svg</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
@@ -3583,16 +3586,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E116">
-        <v>820</v>
+        <v>722</v>
       </c>
       <c r="F116">
-        <v>581</v>
+        <v>330</v>
       </c>
       <c r="G116">
-        <v>0.00023846665999999997</v>
+        <v>0.00020996698599999995</v>
       </c>
       <c r="H116">
-        <v>0.000314126748</v>
+        <v>0.00027658477079999997</v>
       </c>
     </row>
     <row r="117">
@@ -3600,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-petrolium-dark.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
@@ -3609,16 +3612,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E117">
-        <v>721</v>
+        <v>819</v>
       </c>
       <c r="F117">
-        <v>330</v>
+        <v>581</v>
       </c>
       <c r="G117">
-        <v>0.00020967617299999996</v>
+        <v>0.00023817584699999998</v>
       </c>
       <c r="H117">
-        <v>0.0002762016894</v>
+        <v>0.00031374366660000003</v>
       </c>
     </row>
     <row r="118">
@@ -3626,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-black.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
       </c>
       <c r="C118" t="str">
         <v>Image</v>
@@ -3635,16 +3638,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E118">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="F118">
-        <v>581</v>
+        <v>477</v>
       </c>
       <c r="G118">
-        <v>0.00023788503399999996</v>
+        <v>0.000228288205</v>
       </c>
       <c r="H118">
-        <v>0.00031336058520000005</v>
+        <v>0.00030071889900000004</v>
       </c>
     </row>
     <row r="119">
@@ -3652,7 +3655,7 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-angle.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
       </c>
       <c r="C119" t="str">
         <v>Image</v>
@@ -3661,16 +3664,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E119">
-        <v>784</v>
+        <v>846</v>
       </c>
       <c r="F119">
-        <v>477</v>
+        <v>574</v>
       </c>
       <c r="G119">
-        <v>0.00022799739199999997</v>
+        <v>0.00024602779799999996</v>
       </c>
       <c r="H119">
-        <v>0.00030033581760000006</v>
+        <v>0.00032408686440000005</v>
       </c>
     </row>
     <row r="120">
@@ -3678,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-facebook-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
       </c>
       <c r="C120" t="str">
         <v>Image</v>
@@ -3687,16 +3690,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E120">
-        <v>845</v>
+        <v>1507</v>
       </c>
       <c r="F120">
-        <v>574</v>
+        <v>2610</v>
       </c>
       <c r="G120">
-        <v>0.00024573698499999995</v>
+        <v>0.00043825519099999997</v>
       </c>
       <c r="H120">
-        <v>0.000323703783</v>
+        <v>0.0005773036698000001</v>
       </c>
     </row>
     <row r="121">
@@ -3704,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-youtube-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
       </c>
       <c r="C121" t="str">
         <v>Image</v>
@@ -3713,16 +3716,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E121">
-        <v>1506</v>
+        <v>1310</v>
       </c>
       <c r="F121">
-        <v>2610</v>
+        <v>1646</v>
       </c>
       <c r="G121">
-        <v>0.00043796437799999995</v>
+        <v>0.00038096502999999997</v>
       </c>
       <c r="H121">
-        <v>0.0005769205884000001</v>
+        <v>0.000501836634</v>
       </c>
     </row>
     <row r="122">
@@ -3730,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-instagram-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
       </c>
       <c r="C122" t="str">
         <v>Image</v>
@@ -3739,16 +3742,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E122">
-        <v>1309</v>
+        <v>823</v>
       </c>
       <c r="F122">
-        <v>1646</v>
+        <v>589</v>
       </c>
       <c r="G122">
-        <v>0.00038067421699999995</v>
+        <v>0.00023933909899999996</v>
       </c>
       <c r="H122">
-        <v>0.0005014535526000001</v>
+        <v>0.00031527599220000006</v>
       </c>
     </row>
     <row r="123">
@@ -3756,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.baerum.kommune.no/UI/icon-link-external-inverted.svg</v>
+        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
       </c>
       <c r="C123" t="str">
         <v>Image</v>
@@ -3765,16 +3768,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E123">
-        <v>822</v>
+        <v>973</v>
       </c>
       <c r="F123">
-        <v>589</v>
+        <v>884</v>
       </c>
       <c r="G123">
-        <v>0.00023904828599999995</v>
+        <v>0.00028296104899999994</v>
       </c>
       <c r="H123">
-        <v>0.0003148929108000001</v>
+        <v>0.0003727382022000001</v>
       </c>
     </row>
     <row r="124">
@@ -3782,25 +3785,25 @@
         <v>3</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.baerum.kommune.no/UI/comments-alt-solid.svg</v>
+        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
       </c>
       <c r="C124" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D124" t="str">
-        <v>image/svg+xml</v>
+        <v>application/javascript</v>
       </c>
       <c r="E124">
-        <v>972</v>
+        <v>30657</v>
       </c>
       <c r="F124">
-        <v>884</v>
+        <v>195553</v>
       </c>
       <c r="G124">
-        <v>0.0002826702359999999</v>
+        <v>0.008915454140999998</v>
       </c>
       <c r="H124">
-        <v>0.0003723551208</v>
+        <v>0.011744126479800002</v>
       </c>
     </row>
     <row r="125">
@@ -3808,25 +3811,25 @@
         <v>3</v>
       </c>
       <c r="B125" t="str">
-        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
+        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1</v>
       </c>
       <c r="C125" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D125" t="str">
-        <v>application/font-woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E125">
-        <v>33637</v>
+        <v>163218</v>
       </c>
       <c r="F125">
-        <v>33400</v>
+        <v>496793</v>
       </c>
       <c r="G125">
-        <v>0.009782076880999998</v>
+        <v>0.04746591623399999</v>
       </c>
       <c r="H125">
-        <v>0.012885709051800004</v>
+        <v>0.06252577994520002</v>
       </c>
     </row>
     <row r="126">
@@ -3834,25 +3837,25 @@
         <v>3</v>
       </c>
       <c r="B126" t="str">
-        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
+        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
       </c>
       <c r="C126" t="str">
-        <v>Font</v>
+        <v>Script</v>
       </c>
       <c r="D126" t="str">
-        <v>application/font-woff2</v>
+        <v>application/javascript</v>
       </c>
       <c r="E126">
-        <v>28226</v>
+        <v>88499</v>
       </c>
       <c r="F126">
-        <v>27996</v>
+        <v>333797</v>
       </c>
       <c r="G126">
-        <v>0.008208487737999998</v>
+        <v>0.025736659686999997</v>
       </c>
       <c r="H126">
-        <v>0.0108128555964</v>
+        <v>0.0339023208186</v>
       </c>
     </row>
     <row r="127">
@@ -3860,25 +3863,25 @@
         <v>3</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
+        <v>https://use.typekit.net/af/ff705c/00000000000000000001211d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n4&amp;v=3</v>
       </c>
       <c r="C127" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D127" t="str">
-        <v>text/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E127">
-        <v>10433</v>
+        <v>33639</v>
       </c>
       <c r="F127">
-        <v>30432</v>
+        <v>33400</v>
       </c>
       <c r="G127">
-        <v>0.0030340520289999996</v>
+        <v>0.009782658506999999</v>
       </c>
       <c r="H127">
-        <v>0.0039966882462000005</v>
+        <v>0.012886475214600002</v>
       </c>
     </row>
     <row r="128">
@@ -3886,25 +3889,25 @@
         <v>3</v>
       </c>
       <c r="B128" t="str">
-        <v>https://cdn.cookie-script.com/s/dbec92fb66448dd55d3500a7afb58243.js</v>
+        <v>https://use.typekit.net/af/c46776/00000000000000000001196d/26/l?primer=7cdcb44be4a7db8877ffa5c0007b8dd865b3bbc383831fe2ea177f62257a9191&amp;fvd=n3&amp;v=3</v>
       </c>
       <c r="C128" t="str">
-        <v>Script</v>
+        <v>Font</v>
       </c>
       <c r="D128" t="str">
-        <v>application/javascript</v>
+        <v>application/font-woff2</v>
       </c>
       <c r="E128">
-        <v>30656</v>
+        <v>28227</v>
       </c>
       <c r="F128">
-        <v>195553</v>
+        <v>27996</v>
       </c>
       <c r="G128">
-        <v>0.008915163327999999</v>
+        <v>0.008208778550999999</v>
       </c>
       <c r="H128">
-        <v>0.011743743398400001</v>
+        <v>0.010813238677800001</v>
       </c>
     </row>
     <row r="129">
@@ -3912,25 +3915,25 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.googletagmanager.com/gtag/js?id=G-XWHX368R6E&amp;cx=c&amp;gtm=4e5bc1h1</v>
+        <v>https://www.youtube.com/s/player/ef5f17ca/www-widgetapi.vflset/www-widgetapi.js</v>
       </c>
       <c r="C129" t="str">
         <v>Script</v>
       </c>
       <c r="D129" t="str">
-        <v>application/javascript</v>
+        <v>text/javascript</v>
       </c>
       <c r="E129">
-        <v>163214</v>
+        <v>10433</v>
       </c>
       <c r="F129">
-        <v>496793</v>
+        <v>30432</v>
       </c>
       <c r="G129">
-        <v>0.047464752981999994</v>
+        <v>0.0030340520289999996</v>
       </c>
       <c r="H129">
-        <v>0.06252424761960002</v>
+        <v>0.0039966882462000005</v>
       </c>
     </row>
     <row r="130">
@@ -3938,25 +3941,25 @@
         <v>3</v>
       </c>
       <c r="B130" t="str">
-        <v>https://ssl.siteimprove.com/js/siteanalyze_1076826.js</v>
+        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=473&amp;prev=ad6a37e0-e8e7-23d8-624f-5008fdfd133e&amp;luid=d0927a14-1159-2f70-e004-cc23bc722b32&amp;rnd=18153</v>
       </c>
       <c r="C130" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D130" t="str">
-        <v>application/javascript</v>
+        <v>image/gif</v>
       </c>
       <c r="E130">
-        <v>88527</v>
+        <v>212</v>
       </c>
       <c r="F130">
-        <v>333797</v>
+        <v>34</v>
       </c>
       <c r="G130">
-        <v>0.025744802451</v>
+        <v>0.000061652356</v>
       </c>
       <c r="H130">
-        <v>0.033913047097800006</v>
+        <v>0.00008121325679999999</v>
       </c>
     </row>
     <row r="131">
@@ -3964,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="B131" t="str">
-        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763140419356</v>
+        <v>https://p.typekit.net/p.gif?s=1&amp;k=sgo8muj&amp;ht=tk&amp;h=www.baerum.kommune.no&amp;f=14017.14022&amp;a=3314235&amp;js=1.21.0&amp;app=typekit&amp;e=js&amp;_=1763142828933</v>
       </c>
       <c r="C131" t="str">
         <v>Image</v>
@@ -3973,16 +3976,16 @@
         <v>image/gif</v>
       </c>
       <c r="E131">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F131">
         <v>35</v>
       </c>
       <c r="G131">
-        <v>0.00005961666499999999</v>
+        <v>0.000059907477999999995</v>
       </c>
       <c r="H131">
-        <v>0.000078531687</v>
+        <v>0.00007891476840000001</v>
       </c>
     </row>
     <row r="132">
@@ -3999,16 +4002,16 @@
         <v>image/x-icon</v>
       </c>
       <c r="E132">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F132">
         <v>15086</v>
       </c>
       <c r="G132">
-        <v>0.000601401284</v>
+        <v>0.0006016920969999999</v>
       </c>
       <c r="H132">
-        <v>0.0007922123352000001</v>
+        <v>0.0007925954165999999</v>
       </c>
     </row>
     <row r="133">
@@ -4048,16 +4051,16 @@
         <v>application/json</v>
       </c>
       <c r="E134">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F134">
         <v>96</v>
       </c>
       <c r="G134">
-        <v>0.00005816259999999999</v>
+        <v>0.00005845341299999999</v>
       </c>
       <c r="H134">
-        <v>0.00007661628</v>
+        <v>0.0000769993614</v>
       </c>
     </row>
     <row r="135">
@@ -4065,25 +4068,22 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://1076826.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;title=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;res=412x823&amp;accountid=1076826&amp;rt=496&amp;prev=08055643-3a0e-6279-872b-7a382339a3bc&amp;luid=bcdb6d5b-9305-9ad8-3454-74dc7ad2e623&amp;rnd=16602</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763142828626&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=232573479.1763142829&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115938466~115938468~116217636~116217638&amp;sid=1763142828&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1016</v>
       </c>
       <c r="C135" t="str">
-        <v>Image</v>
+        <v>Fetch</v>
       </c>
       <c r="D135" t="str">
-        <v>image/gif</v>
+        <v>text/plain</v>
       </c>
       <c r="E135">
-        <v>210</v>
-      </c>
-      <c r="F135">
-        <v>34</v>
+        <v>554</v>
       </c>
       <c r="G135">
-        <v>0.00006107072999999999</v>
+        <v>0.00016111040199999997</v>
       </c>
       <c r="H135">
-        <v>0.00008044709400000001</v>
+        <v>0.0002122270956</v>
       </c>
     </row>
     <row r="136">
@@ -4091,53 +4091,30 @@
         <v>3</v>
       </c>
       <c r="B136" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-XWHX368R6E&amp;gtm=45je5bc1h1v9118274999z871800422za200zb71800422zd71800422&amp;_p=1763140419209&amp;gcs=G100&amp;gcd=13p3p3p2p5l1&amp;npa=1&amp;dma_cps=-&amp;dma=1&amp;gdid=dMmY1Mm&amp;cid=683618264.1763140420&amp;ul=en-gb&amp;sr=412x823&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=denied&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115938465~115938468~116217636~116217638&amp;sid=1763140419&amp;sct=1&amp;seg=0&amp;dl=https%3A%2F%2Fwww.baerum.kommune.no%2F&amp;dt=Velkommen%20til%20B%C3%A6rum%20kommune.%20Hva%20kan%20vi%20hjelpe%20deg%20med%3F%20%7C%20B%C3%A6rum%20kommune&amp;_tu=CA&amp;en=page_view&amp;_fv=1&amp;_nsi=1&amp;_ss=1&amp;ep.content_group=Other&amp;tfd=1030</v>
+        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763142829995&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
       </c>
       <c r="C136" t="str">
-        <v>Fetch</v>
+        <v>XHR</v>
       </c>
       <c r="D136" t="str">
-        <v>text/plain</v>
+        <v>application/json</v>
       </c>
       <c r="E136">
-        <v>553</v>
+        <v>292</v>
+      </c>
+      <c r="F136">
+        <v>47</v>
       </c>
       <c r="G136">
-        <v>0.00016081958899999998</v>
+        <v>0.00008491739599999999</v>
       </c>
       <c r="H136">
-        <v>0.00021184401420000005</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>3</v>
-      </c>
-      <c r="B137" t="str">
-        <v>https://consent.cookie-script.com/analytics?action=firstshown&amp;time=1763140420519&amp;script=dbec92fb66448dd55d3500a7afb58243&amp;category=</v>
-      </c>
-      <c r="C137" t="str">
-        <v>XHR</v>
-      </c>
-      <c r="D137" t="str">
-        <v>application/json</v>
-      </c>
-      <c r="E137">
-        <v>293</v>
-      </c>
-      <c r="F137">
-        <v>47</v>
-      </c>
-      <c r="G137">
-        <v>0.00008520820899999998</v>
-      </c>
-      <c r="H137">
-        <v>0.0001122428502</v>
+        <v>0.00011185976880000002</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H137"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H136"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4171,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>34245</v>
+        <v>34182</v>
       </c>
       <c r="D2">
         <v>148467</v>
@@ -4185,7 +4162,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>122525</v>
+        <v>122535</v>
       </c>
       <c r="D3">
         <v>491436</v>
@@ -4199,10 +4176,10 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>1955267</v>
+        <v>1953950</v>
       </c>
       <c r="D4">
-        <v>5958293</v>
+        <v>5953886</v>
       </c>
     </row>
     <row r="5">
@@ -4210,10 +4187,10 @@
         <v>Image</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>1125194</v>
+        <v>1125214</v>
       </c>
       <c r="D5">
         <v>1110345</v>
@@ -4227,7 +4204,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>292213</v>
+        <v>292220</v>
       </c>
       <c r="D6">
         <v>290712</v>
@@ -4241,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>6204</v>
+        <v>6206</v>
       </c>
       <c r="D7">
         <v>45258</v>
@@ -4249,30 +4226,30 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>XHR</v>
+        <v>Preflight</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1478</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Preflight</v>
+        <v>XHR</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10">
@@ -4283,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4322,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1179001</v>
+        <v>1178981</v>
       </c>
       <c r="C2">
-        <v>0.34286881781299994</v>
+        <v>0.342863001553</v>
       </c>
       <c r="D2">
-        <v>0.4516533536814001</v>
+        <v>0.4516456920534</v>
       </c>
     </row>
     <row r="3">
@@ -4336,13 +4313,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1180729</v>
+        <v>1179440</v>
       </c>
       <c r="C3">
-        <v>0.3433713426769999</v>
+        <v>0.34299648471999994</v>
       </c>
       <c r="D3">
-        <v>0.45231531834059996</v>
+        <v>0.45182152641600004</v>
       </c>
     </row>
     <row r="4">
@@ -4350,13 +4327,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1179055</v>
+        <v>1179026</v>
       </c>
       <c r="C4">
-        <v>0.34288452171499995</v>
+        <v>0.34287608813799997</v>
       </c>
       <c r="D4">
-        <v>0.451674040077</v>
+        <v>0.4516629307164</v>
       </c>
     </row>
     <row r="5">
@@ -4364,13 +4341,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1179055</v>
+        <v>1179026</v>
       </c>
       <c r="C5">
-        <v>0.34288452171499995</v>
+        <v>0.34287608813799997</v>
       </c>
       <c r="D5">
-        <v>0.451674040077</v>
+        <v>0.4516629307164</v>
       </c>
     </row>
   </sheetData>
